--- a/PropertyListing.xlsx
+++ b/PropertyListing.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e124fde062bc96d5/Desktop/Robots/rpa-robot-four-real-estate-web-scraping/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="41" documentId="8_{0D231742-8F4B-4E7B-AF2D-6AB2BDCED870}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F20A05CC-E63B-49E8-80B4-F69C1D4725DC}"/>
+  <xr:revisionPtr revIDLastSave="718" documentId="6_{5AB3457C-B67F-4ADB-842A-2935B4644CA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CAA433ED-B8E7-4A37-8EB8-F0B2EE94DB6B}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{2C299A8A-78EA-4017-A8AC-ACEBE2DFB9F5}"/>
   </bookViews>
   <sheets>
-    <sheet name="NEW YORK" sheetId="4" r:id="rId1"/>
+    <sheet name="NEW YORK" sheetId="11" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="178">
   <si>
     <t>Price</t>
   </si>
@@ -51,317 +51,543 @@
     <t>Sqft</t>
   </si>
   <si>
-    <t>Full Address</t>
-  </si>
-  <si>
     <t>Listing URL</t>
   </si>
   <si>
-    <t>339 Greeley St, Rochester, NY 14609</t>
-  </si>
-  <si>
     <t>https://www.zillow.com/homedetails/339-Greeley-St-Rochester-NY-14609/237390710_zpid/</t>
   </si>
   <si>
-    <t>30 Quintuck Lane, East Islip, NY 11730</t>
+    <t>https://www.zillow.com/homedetails/200-Homecroft-Rd-Syracuse-NY-13206/31663429_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/142-Topland-Rd-Mahopac-NY-10541/31908618_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/192-Colfax-Ave-Staten-Island-NY-10306/32329899_zpid/</t>
+  </si>
+  <si>
+    <t>Street Address</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>ZIP</t>
+  </si>
+  <si>
+    <t>200 Homecroft Rd</t>
+  </si>
+  <si>
+    <t>339 Greeley St</t>
+  </si>
+  <si>
+    <t>142 Topland Road</t>
+  </si>
+  <si>
+    <t>192 Colfax Ave</t>
+  </si>
+  <si>
+    <t>Rochester</t>
+  </si>
+  <si>
+    <t>Buffalo</t>
+  </si>
+  <si>
+    <t>Syracuse</t>
+  </si>
+  <si>
+    <t>Staten Island</t>
+  </si>
+  <si>
+    <t>Mahopac</t>
+  </si>
+  <si>
+    <t>Clifton Park</t>
+  </si>
+  <si>
+    <t>Niagara Falls</t>
+  </si>
+  <si>
+    <t>Ossining</t>
+  </si>
+  <si>
+    <t>Brooklyn</t>
+  </si>
+  <si>
+    <t>Lockport</t>
+  </si>
+  <si>
+    <t>Lancaster</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/332-Harwick-Rd-Rochester-NY-14609/30984731_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/166-Sherbrooke-Ave-Buffalo-NY-14221/30260536_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/119-Village-Hill-Dr-Spencerport-NY-14559/30989540_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/24005-147th-Ave-Jamaica-NY-11422/32209658_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/620-Sinclair-Ave-Staten-Island-NY-10312/32366110_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/430-Hill-Rd-Middletown-NY-10940/31855420_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/1170-Britton-Rd-Rochester-NY-14616/30942098_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/487-Crossfield-Rd-Rochester-NY-14609/30982645_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/6029-Morris-Rd-Geneseo-NY-14454/2053347377_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/200-Brush-Creek-Dr-Rochester-NY-14612/30929094_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/646-Bellevue-Ave-N-Yonkers-NY-10703/32992840_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/77-Highland-Lake-Rd-Middletown-NY-10940/31836701_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/51-Pine-Tree-Pl-Clifton-Park-NY-12065/32420946_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/241-6-137th-Ave-Rosedale-NY-11422/2056637647_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/168-Willowcrest-Dr-Buffalo-NY-14224/30417925_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/21-Clinton-St-E-Valhalla-NY-10595/33061559_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/762-Close-Cir-Webster-NY-14580/54360883_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/7-Loch-Loyal-Ct-Penfield-NY-14526/54359855_zpid/</t>
   </si>
   <si>
     <t>https://www.zillow.com/homedetails/30-Quintuck-Ln-East-Islip-NY-11730/59358666_zpid/</t>
   </si>
   <si>
-    <t>200 Homecroft Rd, Syracuse, NY 13206</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/200-Homecroft-Rd-Syracuse-NY-13206/31663429_zpid/</t>
-  </si>
-  <si>
-    <t>142 Topland Road, Mahopac, NY 10541</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/142-Topland-Rd-Mahopac-NY-10541/31908618_zpid/</t>
-  </si>
-  <si>
-    <t>192 Colfax Ave, Staten Island, NY 10306</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/192-Colfax-Ave-Staten-Island-NY-10306/32329899_zpid/</t>
-  </si>
-  <si>
-    <t>Street Address</t>
-  </si>
-  <si>
-    <t>332 Harwick Rd, Rochester, NY 14609</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/332-Harwick-Rd-Rochester-NY-14609/30984731_zpid/</t>
-  </si>
-  <si>
-    <t>166 Sherbrooke Ave, Buffalo, NY 14221</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/166-Sherbrooke-Ave-Buffalo-NY-14221/30260536_zpid/</t>
-  </si>
-  <si>
-    <t>119 Village Hill Dr, Spencerport, NY 14559</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/119-Village-Hill-Dr-Spencerport-NY-14559/30989540_zpid/</t>
-  </si>
-  <si>
-    <t>24005 147th Ave, Jamaica, NY 11422</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/24005-147th-Ave-Jamaica-NY-11422/32209658_zpid/</t>
-  </si>
-  <si>
-    <t>620 Sinclair Ave, Staten Island, NY 10312</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/620-Sinclair-Ave-Staten-Island-NY-10312/32366110_zpid/</t>
-  </si>
-  <si>
-    <t>430 Hill Road, Middletown, NY 10940</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/430-Hill-Rd-Middletown-NY-10940/31855420_zpid/</t>
-  </si>
-  <si>
-    <t>1170 Britton Rd, Rochester, NY 14616</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/1170-Britton-Rd-Rochester-NY-14616/30942098_zpid/</t>
-  </si>
-  <si>
-    <t>487 Crossfield Rd, Rochester, NY 14609</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/487-Crossfield-Rd-Rochester-NY-14609/30982645_zpid/</t>
-  </si>
-  <si>
-    <t>6029 Morris Rd, Geneseo, NY 14454</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/6029-Morris-Rd-Geneseo-NY-14454/2053347377_zpid/</t>
-  </si>
-  <si>
-    <t>200 Brush Creek Dr, Rochester, NY 14612</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/200-Brush-Creek-Dr-Rochester-NY-14612/30929094_zpid/</t>
-  </si>
-  <si>
-    <t>646 Bellevue Avenue N, Yonkers, NY 10703</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/646-Bellevue-Ave-N-Yonkers-NY-10703/32992840_zpid/</t>
-  </si>
-  <si>
-    <t>77 Highland Lake Road, Middletown, NY 10940</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/77-Highland-Lake-Rd-Middletown-NY-10940/31836701_zpid/</t>
-  </si>
-  <si>
-    <t>51 Pine Tree Pl, Clifton Park, NY 12065</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/51-Pine-Tree-Pl-Clifton-Park-NY-12065/32420946_zpid/</t>
-  </si>
-  <si>
-    <t>241-6 137th Ave, Rosedale, NY 11422</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/241-6-137th-Ave-Rosedale-NY-11422/2056637647_zpid/</t>
-  </si>
-  <si>
-    <t>168 Willowcrest Dr, Buffalo, NY 14224</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/168-Willowcrest-Dr-Buffalo-NY-14224/30417925_zpid/</t>
-  </si>
-  <si>
-    <t>162 E Argyle Street, Valley Stream, NY 11580</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/162-E-Argyle-St-Valley-Stream-NY-11580/31227219_zpid/</t>
-  </si>
-  <si>
-    <t>21 Clinton Street E, Valhalla, NY 10595</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/21-Clinton-St-E-Valhalla-NY-10595/33061559_zpid/</t>
-  </si>
-  <si>
-    <t>762 Close Cir, Webster, NY 14580</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/762-Close-Cir-Webster-NY-14580/54360883_zpid/</t>
-  </si>
-  <si>
-    <t>7 Loch Loyal Ct, Penfield, NY 14526</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/7-Loch-Loyal-Ct-Penfield-NY-14526/54359855_zpid/</t>
-  </si>
-  <si>
-    <t>28 Valleyview Dr, Keeseville, NY 12944</t>
-  </si>
-  <si>
     <t>https://www.zillow.com/homedetails/28-Valleyview-Dr-Keeseville-NY-12944/215764548_zpid/</t>
   </si>
   <si>
-    <t>920 Cadillac St, Syracuse, NY 13208</t>
-  </si>
-  <si>
     <t>https://www.zillow.com/homedetails/920-Cadillac-St-Syracuse-NY-13208/31775902_zpid/</t>
   </si>
   <si>
-    <t>168 Euclid Ave, Hamburg, NY 14075</t>
-  </si>
-  <si>
     <t>https://www.zillow.com/homedetails/168-Euclid-Ave-Hamburg-NY-14075/133720507_zpid/</t>
   </si>
   <si>
-    <t>10 Van Cortland Dr, Pittsford, NY 14534</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/10-Van-Cortland-Dr-Pittsford-NY-14534/31028746_zpid/</t>
-  </si>
-  <si>
-    <t>245 Mountain View Avenue, Wallkill, NY 12589</t>
+    <t>https://www.zillow.com/homedetails/45-Larch-Rd-Briarcliff-Manor-NY-10510/33054907_zpid/</t>
   </si>
   <si>
     <t>https://www.zillow.com/homedetails/245-Mountain-View-Ave-Wallkill-NY-12589/31837731_zpid/</t>
   </si>
   <si>
-    <t>1310 Henry Avenue, Mamaroneck, NY 10543</t>
-  </si>
-  <si>
     <t>https://www.zillow.com/homedetails/1310-Henry-Ave-Mamaroneck-NY-10543/33089173_zpid/</t>
   </si>
   <si>
-    <t>9053 McDonald Rd, Holland Patent, NY 13354</t>
-  </si>
-  <si>
     <t>https://www.zillow.com/homedetails/9053-McDonald-Rd-Holland-Patent-NY-13354/31606317_zpid/</t>
   </si>
   <si>
-    <t>2753 Woodlawn Ave, Niagara Falls, NY 14301</t>
-  </si>
-  <si>
     <t>https://www.zillow.com/homedetails/2753-Woodlawn-Ave-Niagara-Falls-NY-14301/31442900_zpid/</t>
   </si>
   <si>
-    <t>28 Park Avenue, Ossining, NY 10562</t>
-  </si>
-  <si>
     <t>https://www.zillow.com/homedetails/28-Park-Ave-Ossining-NY-10562/33075992_zpid/</t>
   </si>
   <si>
-    <t>177 Benedict Rd, Staten Island, NY 10304</t>
-  </si>
-  <si>
     <t>https://www.zillow.com/homedetails/177-Benedict-Rd-Staten-Island-NY-10304/32294383_zpid/</t>
   </si>
   <si>
-    <t>276 Walzford Rd, Rochester, NY 14622</t>
-  </si>
-  <si>
     <t>https://www.zillow.com/homedetails/276-Walzford-Rd-Rochester-NY-14622/30979279_zpid/</t>
   </si>
   <si>
-    <t>34 Fernwood Ave, Buffalo, NY 14206</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/34-Fernwood-Ave-Buffalo-NY-14206/30403359_zpid/</t>
-  </si>
-  <si>
-    <t>35 Atwood Dr, Rochester, NY 14606</t>
-  </si>
-  <si>
     <t>https://www.zillow.com/homedetails/35-Atwood-Dr-Rochester-NY-14606/30918541_zpid/</t>
   </si>
   <si>
-    <t>177 Rockhill Road, Voorheesville, NY 12186</t>
-  </si>
-  <si>
     <t>https://www.zillow.com/homedetails/177-Rockhill-Rd-Voorheesville-NY-12186/29714951_zpid/</t>
   </si>
   <si>
-    <t>135 S Quaker Hill Road, Pawling, NY 12564</t>
-  </si>
-  <si>
     <t>https://www.zillow.com/homedetails/135-S-Quaker-Hill-Rd-Pawling-NY-12564/98674556_zpid/</t>
   </si>
   <si>
-    <t>2 Shadyside Avenue, Nyack, NY 10960</t>
-  </si>
-  <si>
     <t>https://www.zillow.com/homedetails/2-Shadyside-Ave-Nyack-NY-10960/32386673_zpid/</t>
   </si>
   <si>
-    <t>151 Lake Ln, Millerton, NY 12546</t>
-  </si>
-  <si>
     <t>https://www.zillow.com/homedetails/151-Lake-Ln-Millerton-NY-12546/2101732771_zpid/</t>
   </si>
   <si>
-    <t>26076 Bonney Rd, Watertown, NY 13601</t>
-  </si>
-  <si>
     <t>https://www.zillow.com/homedetails/26076-Bonney-Rd-Watertown-NY-13601/30545051_zpid/</t>
   </si>
   <si>
-    <t>228 Edward Pl, Yonkers, NY 10703</t>
-  </si>
-  <si>
     <t>https://www.zillow.com/homedetails/228-Edward-Pl-Yonkers-NY-10703/2053491555_zpid/</t>
   </si>
   <si>
-    <t>92 Hopeland Ln, Staatsburg, NY 12580</t>
-  </si>
-  <si>
     <t>https://www.zillow.com/homedetails/92-Hopeland-Ln-Staatsburg-NY-12580/30110663_zpid/</t>
   </si>
   <si>
-    <t>528 College Ave, Niagara Falls, NY 14305</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/528-College-Ave-Niagara-Falls-NY-14305/31436975_zpid/</t>
-  </si>
-  <si>
-    <t>159 Chamberlin Dr, Buffalo, NY 14210</t>
+    <t>https://www.zillow.com/homedetails/5423-Avenue-M-Brooklyn-NY-11234/30763303_zpid/</t>
   </si>
   <si>
     <t>https://www.zillow.com/homedetails/159-Chamberlin-Dr-Buffalo-NY-14210/30406903_zpid/</t>
   </si>
   <si>
-    <t>128 Howell St, Buffalo, NY 14207</t>
-  </si>
-  <si>
     <t>https://www.zillow.com/homedetails/128-Howell-St-Buffalo-NY-14207/30164474_zpid/</t>
   </si>
   <si>
-    <t>4A Saint Anthony St, Lancaster, NY 14086</t>
-  </si>
-  <si>
     <t>https://www.zillow.com/homedetails/4A-Saint-Anthony-St-Lancaster-NY-14086/306300793_zpid/</t>
   </si>
   <si>
-    <t>City</t>
-  </si>
-  <si>
-    <t>ZIP</t>
+    <t>https://www.zillow.com/homedetails/7062-Akron-Rd-Lockport-NY-14094/31469404_zpid/</t>
+  </si>
+  <si>
+    <t>Price per Sqft</t>
+  </si>
+  <si>
+    <t>332 Harwick Rd</t>
+  </si>
+  <si>
+    <t>14609</t>
+  </si>
+  <si>
+    <t>166 Sherbrooke Ave</t>
+  </si>
+  <si>
+    <t>14221</t>
+  </si>
+  <si>
+    <t>13206</t>
+  </si>
+  <si>
+    <t>119 Village Hill Dr</t>
+  </si>
+  <si>
+    <t>Spencerport</t>
+  </si>
+  <si>
+    <t>14559</t>
+  </si>
+  <si>
+    <t>24005 147th Ave</t>
+  </si>
+  <si>
+    <t>Jamaica</t>
+  </si>
+  <si>
+    <t>11422</t>
+  </si>
+  <si>
+    <t>620 Sinclair Ave</t>
+  </si>
+  <si>
+    <t>10312</t>
+  </si>
+  <si>
+    <t>430 Hill Road</t>
+  </si>
+  <si>
+    <t>Middletown</t>
+  </si>
+  <si>
+    <t>10940</t>
+  </si>
+  <si>
+    <t>1170 Britton Rd</t>
+  </si>
+  <si>
+    <t>14616</t>
+  </si>
+  <si>
+    <t>487 Crossfield Rd</t>
+  </si>
+  <si>
+    <t>6029 Morris Rd</t>
+  </si>
+  <si>
+    <t>Geneseo</t>
+  </si>
+  <si>
+    <t>14454</t>
+  </si>
+  <si>
+    <t>200 Brush Creek Dr</t>
+  </si>
+  <si>
+    <t>14612</t>
+  </si>
+  <si>
+    <t>10541</t>
+  </si>
+  <si>
+    <t>646 Bellevue Avenue N</t>
+  </si>
+  <si>
+    <t>Yonkers</t>
+  </si>
+  <si>
+    <t>10703</t>
+  </si>
+  <si>
+    <t>77 Highland Lake Road</t>
+  </si>
+  <si>
+    <t>51 Pine Tree Pl</t>
+  </si>
+  <si>
+    <t>12065</t>
+  </si>
+  <si>
+    <t>241-6 137th Ave</t>
+  </si>
+  <si>
+    <t>Rosedale</t>
+  </si>
+  <si>
+    <t>168 Willowcrest Dr</t>
+  </si>
+  <si>
+    <t>14224</t>
+  </si>
+  <si>
+    <t>21 Clinton Street E</t>
+  </si>
+  <si>
+    <t>Valhalla</t>
+  </si>
+  <si>
+    <t>10595</t>
+  </si>
+  <si>
+    <t>762 Close Cir</t>
+  </si>
+  <si>
+    <t>Webster</t>
+  </si>
+  <si>
+    <t>14580</t>
+  </si>
+  <si>
+    <t>7 Loch Loyal Ct</t>
+  </si>
+  <si>
+    <t>Penfield</t>
+  </si>
+  <si>
+    <t>14526</t>
+  </si>
+  <si>
+    <t>30 Quintuck Lane</t>
+  </si>
+  <si>
+    <t>East Islip</t>
+  </si>
+  <si>
+    <t>11730</t>
+  </si>
+  <si>
+    <t>28 Valleyview Dr</t>
+  </si>
+  <si>
+    <t>Keeseville</t>
+  </si>
+  <si>
+    <t>12944</t>
+  </si>
+  <si>
+    <t>920 Cadillac St</t>
+  </si>
+  <si>
+    <t>13208</t>
+  </si>
+  <si>
+    <t>10306</t>
+  </si>
+  <si>
+    <t>168 Euclid Ave</t>
+  </si>
+  <si>
+    <t>Hamburg</t>
+  </si>
+  <si>
+    <t>14075</t>
+  </si>
+  <si>
+    <t>45 Larch Road</t>
+  </si>
+  <si>
+    <t>Briarcliff Manor</t>
+  </si>
+  <si>
+    <t>10510</t>
+  </si>
+  <si>
+    <t>245 Mountain View Avenue</t>
+  </si>
+  <si>
+    <t>Wallkill</t>
+  </si>
+  <si>
+    <t>12589</t>
+  </si>
+  <si>
+    <t>1310 Henry Avenue</t>
+  </si>
+  <si>
+    <t>Mamaroneck</t>
+  </si>
+  <si>
+    <t>10543</t>
+  </si>
+  <si>
+    <t>9053 McDonald Rd</t>
+  </si>
+  <si>
+    <t>Holland Patent</t>
+  </si>
+  <si>
+    <t>13354</t>
+  </si>
+  <si>
+    <t>2753 Woodlawn Ave</t>
+  </si>
+  <si>
+    <t>14301</t>
+  </si>
+  <si>
+    <t>28 Park Avenue</t>
+  </si>
+  <si>
+    <t>10562</t>
+  </si>
+  <si>
+    <t>177 Benedict Rd</t>
+  </si>
+  <si>
+    <t>10304</t>
+  </si>
+  <si>
+    <t>276 Walzford Rd</t>
+  </si>
+  <si>
+    <t>14622</t>
+  </si>
+  <si>
+    <t>35 Atwood Dr</t>
+  </si>
+  <si>
+    <t>14606</t>
+  </si>
+  <si>
+    <t>177 Rockhill Road</t>
+  </si>
+  <si>
+    <t>Voorheesville</t>
+  </si>
+  <si>
+    <t>12186</t>
+  </si>
+  <si>
+    <t>135 S Quaker Hill Road</t>
+  </si>
+  <si>
+    <t>Pawling</t>
+  </si>
+  <si>
+    <t>12564</t>
+  </si>
+  <si>
+    <t>2 Shadyside Avenue</t>
+  </si>
+  <si>
+    <t>Nyack</t>
+  </si>
+  <si>
+    <t>10960</t>
+  </si>
+  <si>
+    <t>151 Lake Ln</t>
+  </si>
+  <si>
+    <t>Millerton</t>
+  </si>
+  <si>
+    <t>12546</t>
+  </si>
+  <si>
+    <t>26076 Bonney Rd</t>
+  </si>
+  <si>
+    <t>Watertown</t>
+  </si>
+  <si>
+    <t>13601</t>
+  </si>
+  <si>
+    <t>228 Edward Pl</t>
+  </si>
+  <si>
+    <t>92 Hopeland Ln</t>
+  </si>
+  <si>
+    <t>Staatsburg</t>
+  </si>
+  <si>
+    <t>12580</t>
+  </si>
+  <si>
+    <t>5423 Avenue M</t>
+  </si>
+  <si>
+    <t>11234</t>
+  </si>
+  <si>
+    <t>159 Chamberlin Dr</t>
+  </si>
+  <si>
+    <t>14210</t>
+  </si>
+  <si>
+    <t>128 Howell St</t>
+  </si>
+  <si>
+    <t>14207</t>
+  </si>
+  <si>
+    <t>4A Saint Anthony St</t>
+  </si>
+  <si>
+    <t>14086</t>
+  </si>
+  <si>
+    <t>7062 Akron Rd</t>
+  </si>
+  <si>
+    <t>14094</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -387,9 +613,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -707,19 +935,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09414AAF-7911-4B77-A4FB-E78911D4E968}">
-  <dimension ref="A1:I49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FD33014-DAD2-4ABA-B1CA-FADA69558601}">
+  <dimension ref="A1:I48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AC22" sqref="AC22"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="93.7109375" customWidth="1"/>
-    <col min="6" max="6" width="21.5703125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15" style="1" customWidth="1"/>
-    <col min="8" max="8" width="32.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="2"/>
+    <col min="6" max="6" width="9.140625" style="1"/>
+    <col min="7" max="7" width="9.140625" style="3"/>
+    <col min="8" max="8" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -735,165 +961,228 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="I1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>189900</v>
+        <v>169900</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>1328</v>
-      </c>
-      <c r="E2" t="s">
+        <v>1700</v>
+      </c>
+      <c r="E2" s="2">
+        <v>99.941176470588204</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>17</v>
       </c>
+      <c r="H2" s="1" t="s">
+        <v>173</v>
+      </c>
       <c r="I2" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>374900</v>
+        <v>210000</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>2908</v>
-      </c>
-      <c r="E3" t="s">
-        <v>19</v>
+        <v>768</v>
+      </c>
+      <c r="E3" s="2">
+        <v>273.4375</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>160</v>
       </c>
       <c r="I3" t="s">
-        <v>20</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>195000</v>
+        <v>375000</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4">
-        <v>2264</v>
-      </c>
-      <c r="E4" t="s">
-        <v>10</v>
+        <v>1652</v>
+      </c>
+      <c r="E4" s="2">
+        <v>226.99757869249299</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>86</v>
       </c>
       <c r="I4" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>199900</v>
+        <v>625000</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="D5">
-        <v>1420</v>
-      </c>
-      <c r="E5" t="s">
-        <v>21</v>
+        <v>1160</v>
+      </c>
+      <c r="E5" s="2">
+        <v>538.79310344827502</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>135</v>
       </c>
       <c r="I5" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>250000</v>
+        <v>599000</v>
       </c>
       <c r="B6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6">
-        <v>2304</v>
-      </c>
-      <c r="E6" t="s">
-        <v>23</v>
+        <v>2836</v>
+      </c>
+      <c r="E6" s="2">
+        <v>211.21297602256701</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>154</v>
       </c>
       <c r="I6" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>260000</v>
+        <v>139900</v>
       </c>
       <c r="B7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>2015</v>
-      </c>
-      <c r="E7" t="s">
-        <v>25</v>
+        <v>1231</v>
+      </c>
+      <c r="E7" s="2">
+        <v>113.64744110479199</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="I7" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>350000</v>
+        <v>119900</v>
       </c>
       <c r="B8">
         <v>3</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8">
-        <v>1500</v>
-      </c>
-      <c r="E8" t="s">
-        <v>27</v>
+        <v>864</v>
+      </c>
+      <c r="E8" s="2">
+        <v>138.77314814814801</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="I8" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>139900</v>
+        <v>249900</v>
       </c>
       <c r="B9">
         <v>3</v>
@@ -902,18 +1191,27 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>1231</v>
-      </c>
-      <c r="E9" t="s">
-        <v>29</v>
+        <v>1240</v>
+      </c>
+      <c r="E9" s="2">
+        <v>201.53225806451599</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="I9" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>119900</v>
+        <v>339000</v>
       </c>
       <c r="B10">
         <v>3</v>
@@ -922,58 +1220,85 @@
         <v>1</v>
       </c>
       <c r="D10">
-        <v>864</v>
-      </c>
-      <c r="E10" t="s">
-        <v>31</v>
+        <v>1248</v>
+      </c>
+      <c r="E10" s="2">
+        <v>271.63461538461502</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>142</v>
       </c>
       <c r="I10" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>199900</v>
+        <v>300000</v>
       </c>
       <c r="B11">
         <v>3</v>
       </c>
       <c r="C11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D11">
-        <v>1556</v>
-      </c>
-      <c r="E11" t="s">
-        <v>33</v>
+        <v>952</v>
+      </c>
+      <c r="E11" s="2">
+        <v>315.12605042016799</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>169</v>
       </c>
       <c r="I11" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>360000</v>
+        <v>129900</v>
       </c>
       <c r="B12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D12">
-        <v>2306</v>
-      </c>
-      <c r="E12" t="s">
-        <v>35</v>
+        <v>1639</v>
+      </c>
+      <c r="E12" s="2">
+        <v>79.255643685173794</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="I12" t="s">
-        <v>36</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>425000</v>
+        <v>189900</v>
       </c>
       <c r="B13">
         <v>3</v>
@@ -982,58 +1307,85 @@
         <v>2</v>
       </c>
       <c r="D13">
-        <v>1224</v>
-      </c>
-      <c r="E13" t="s">
-        <v>12</v>
+        <v>1860</v>
+      </c>
+      <c r="E13" s="2">
+        <v>102.096774193548</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>151</v>
       </c>
       <c r="I13" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>739999</v>
+        <v>174900</v>
       </c>
       <c r="B14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C14">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D14">
-        <v>2734</v>
-      </c>
-      <c r="E14" t="s">
-        <v>37</v>
+        <v>1470</v>
+      </c>
+      <c r="E14" s="2">
+        <v>118.979591836734</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>146</v>
       </c>
       <c r="I14" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>375000</v>
+        <v>194000</v>
       </c>
       <c r="B15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C15">
         <v>2</v>
       </c>
       <c r="D15">
-        <v>1652</v>
-      </c>
-      <c r="E15" t="s">
-        <v>39</v>
+        <v>1528</v>
+      </c>
+      <c r="E15" s="2">
+        <v>126.96335078534</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>177</v>
       </c>
       <c r="I15" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>299000</v>
+        <v>259900</v>
       </c>
       <c r="B16">
         <v>3</v>
@@ -1042,38 +1394,56 @@
         <v>2</v>
       </c>
       <c r="D16">
-        <v>1778</v>
-      </c>
-      <c r="E16" t="s">
-        <v>41</v>
+        <v>1922</v>
+      </c>
+      <c r="E16" s="2">
+        <v>135.22372528616</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>138</v>
       </c>
       <c r="I16" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>250000</v>
+        <v>199900</v>
       </c>
       <c r="B17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C17">
         <v>2</v>
       </c>
       <c r="D17">
-        <v>1676</v>
-      </c>
-      <c r="E17" t="s">
-        <v>43</v>
+        <v>1420</v>
+      </c>
+      <c r="E17" s="2">
+        <v>140.774647887323</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="I17" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>129900</v>
+        <v>189900</v>
       </c>
       <c r="B18">
         <v>3</v>
@@ -1082,18 +1452,27 @@
         <v>2</v>
       </c>
       <c r="D18">
-        <v>1639</v>
-      </c>
-      <c r="E18" t="s">
-        <v>6</v>
+        <v>1328</v>
+      </c>
+      <c r="E18" s="2">
+        <v>142.996987951807</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="I18" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>198000</v>
+        <v>209900</v>
       </c>
       <c r="B19">
         <v>3</v>
@@ -1102,38 +1481,56 @@
         <v>2</v>
       </c>
       <c r="D19">
-        <v>999</v>
-      </c>
-      <c r="E19" t="s">
-        <v>45</v>
+        <v>1457</v>
+      </c>
+      <c r="E19" s="2">
+        <v>144.063143445435</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>148</v>
       </c>
       <c r="I19" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>789000</v>
+        <v>299000</v>
       </c>
       <c r="B20">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C20">
         <v>2</v>
       </c>
       <c r="D20">
-        <v>1768</v>
-      </c>
-      <c r="E20" t="s">
-        <v>47</v>
+        <v>1778</v>
+      </c>
+      <c r="E20" s="2">
+        <v>168.166479190101</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>101</v>
       </c>
       <c r="I20" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>599000</v>
+        <v>209900</v>
       </c>
       <c r="B21">
         <v>3</v>
@@ -1142,58 +1539,85 @@
         <v>2</v>
       </c>
       <c r="D21">
-        <v>1401</v>
-      </c>
-      <c r="E21" t="s">
-        <v>49</v>
+        <v>1243</v>
+      </c>
+      <c r="E21" s="2">
+        <v>168.86564762670901</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>171</v>
       </c>
       <c r="I21" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>324900</v>
+        <v>198000</v>
       </c>
       <c r="B22">
         <v>3</v>
       </c>
       <c r="C22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D22">
-        <v>1894</v>
-      </c>
-      <c r="E22" t="s">
-        <v>51</v>
+        <v>999</v>
+      </c>
+      <c r="E22" s="2">
+        <v>198.19819819819801</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>105</v>
       </c>
       <c r="I22" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>650000</v>
+        <v>350000</v>
       </c>
       <c r="B23">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D23">
-        <v>3529</v>
-      </c>
-      <c r="E23" t="s">
-        <v>53</v>
+        <v>1500</v>
+      </c>
+      <c r="E23" s="2">
+        <v>233.333333333333</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>86</v>
       </c>
       <c r="I23" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>585000</v>
+        <v>350000</v>
       </c>
       <c r="B24">
         <v>3</v>
@@ -1202,58 +1626,85 @@
         <v>2</v>
       </c>
       <c r="D24">
-        <v>1199</v>
-      </c>
-      <c r="E24" t="s">
-        <v>8</v>
+        <v>1476</v>
+      </c>
+      <c r="E24" s="2">
+        <v>237.12737127371199</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>98</v>
       </c>
       <c r="I24" t="s">
-        <v>9</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>200000</v>
+        <v>364999</v>
       </c>
       <c r="B25">
         <v>3</v>
       </c>
       <c r="C25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D25">
-        <v>2400</v>
-      </c>
-      <c r="E25" t="s">
-        <v>55</v>
+        <v>1186</v>
+      </c>
+      <c r="E25" s="2">
+        <v>307.756323777403</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>132</v>
       </c>
       <c r="I25" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>125000</v>
+        <v>425000</v>
       </c>
       <c r="B26">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C26">
         <v>2</v>
       </c>
       <c r="D26">
-        <v>1294</v>
-      </c>
-      <c r="E26" t="s">
-        <v>57</v>
+        <v>1224</v>
+      </c>
+      <c r="E26" s="2">
+        <v>347.222222222222</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>95</v>
       </c>
       <c r="I26" t="s">
-        <v>58</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>585000</v>
+        <v>599000</v>
       </c>
       <c r="B27">
         <v>3</v>
@@ -1262,198 +1713,288 @@
         <v>2</v>
       </c>
       <c r="D27">
-        <v>1100</v>
-      </c>
-      <c r="E27" t="s">
-        <v>14</v>
+        <v>1401</v>
+      </c>
+      <c r="E27" s="2">
+        <v>427.55174875089199</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>108</v>
       </c>
       <c r="I27" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>249900</v>
+        <v>585000</v>
       </c>
       <c r="B28">
         <v>3</v>
       </c>
       <c r="C28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D28">
-        <v>1240</v>
-      </c>
-      <c r="E28" t="s">
-        <v>59</v>
+        <v>1199</v>
+      </c>
+      <c r="E28" s="2">
+        <v>487.90658882401999</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>117</v>
       </c>
       <c r="I28" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>549900</v>
+        <v>585000</v>
       </c>
       <c r="B29">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D29">
-        <v>3000</v>
-      </c>
-      <c r="E29" t="s">
-        <v>61</v>
+        <v>1100</v>
+      </c>
+      <c r="E29" s="2">
+        <v>531.81818181818096</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>123</v>
       </c>
       <c r="I29" t="s">
-        <v>62</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>364999</v>
+        <v>200000</v>
       </c>
       <c r="B30">
         <v>3</v>
       </c>
       <c r="C30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D30">
-        <v>1186</v>
-      </c>
-      <c r="E30" t="s">
-        <v>63</v>
+        <v>2400</v>
+      </c>
+      <c r="E30" s="2">
+        <v>83.3333333333333</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>120</v>
       </c>
       <c r="I30" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>625000</v>
+        <v>199900</v>
       </c>
       <c r="B31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D31">
-        <v>1160</v>
-      </c>
-      <c r="E31" t="s">
-        <v>65</v>
+        <v>1556</v>
+      </c>
+      <c r="E31" s="2">
+        <v>128.47043701799399</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="I31" t="s">
-        <v>66</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>259900</v>
+        <v>324900</v>
       </c>
       <c r="B32">
         <v>3</v>
       </c>
       <c r="C32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D32">
-        <v>1922</v>
-      </c>
-      <c r="E32" t="s">
-        <v>67</v>
+        <v>1894</v>
+      </c>
+      <c r="E32" s="2">
+        <v>171.54171066525799</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>111</v>
       </c>
       <c r="I32" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>179900</v>
+        <v>379900</v>
       </c>
       <c r="B33">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D33">
-        <v>2045</v>
-      </c>
-      <c r="E33" t="s">
-        <v>69</v>
+        <v>1632</v>
+      </c>
+      <c r="E33" s="2">
+        <v>232.78186274509801</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>175</v>
       </c>
       <c r="I33" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>339000</v>
+        <v>799000</v>
       </c>
       <c r="B34">
         <v>3</v>
       </c>
       <c r="C34">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D34">
-        <v>1248</v>
-      </c>
-      <c r="E34" t="s">
-        <v>71</v>
+        <v>2068</v>
+      </c>
+      <c r="E34" s="2">
+        <v>386.36363636363598</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>129</v>
       </c>
       <c r="I34" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>16800000</v>
+        <v>1100000</v>
       </c>
       <c r="B35">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C35">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="D35">
-        <v>33000</v>
-      </c>
-      <c r="E35" t="s">
-        <v>73</v>
+        <v>1738</v>
+      </c>
+      <c r="E35" s="2">
+        <v>632.911392405063</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>167</v>
       </c>
       <c r="I35" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>174900</v>
+        <v>195000</v>
       </c>
       <c r="B36">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C36">
         <v>2</v>
       </c>
       <c r="D36">
-        <v>1470</v>
-      </c>
-      <c r="E36" t="s">
+        <v>2264</v>
+      </c>
+      <c r="E36" s="2">
+        <v>86.130742049469902</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H36" s="1" t="s">
         <v>75</v>
       </c>
       <c r="I36" t="s">
-        <v>76</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>199900</v>
+        <v>179900</v>
       </c>
       <c r="B37">
         <v>4</v>
@@ -1462,256 +2003,348 @@
         <v>2</v>
       </c>
       <c r="D37">
-        <v>1260</v>
-      </c>
-      <c r="E37" t="s">
-        <v>77</v>
+        <v>2045</v>
+      </c>
+      <c r="E37" s="2">
+        <v>87.970660146699203</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>140</v>
       </c>
       <c r="I37" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>209900</v>
+        <v>125000</v>
       </c>
       <c r="B38">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C38">
         <v>2</v>
       </c>
       <c r="D38">
-        <v>1457</v>
-      </c>
-      <c r="E38" t="s">
-        <v>79</v>
+        <v>1294</v>
+      </c>
+      <c r="E38" s="2">
+        <v>96.599690880989101</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>122</v>
       </c>
       <c r="I38" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>189900</v>
+        <v>250000</v>
       </c>
       <c r="B39">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C39">
         <v>2</v>
       </c>
       <c r="D39">
-        <v>1860</v>
-      </c>
-      <c r="E39" t="s">
+        <v>2304</v>
+      </c>
+      <c r="E39" s="2">
+        <v>108.506944444444</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H39" s="1" t="s">
         <v>81</v>
       </c>
       <c r="I39" t="s">
-        <v>82</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>599000</v>
+        <v>219000</v>
       </c>
       <c r="B40">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C40">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D40">
-        <v>2836</v>
-      </c>
-      <c r="E40" t="s">
-        <v>83</v>
+        <v>1974</v>
+      </c>
+      <c r="E40" s="2">
+        <v>110.942249240121</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="I40" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>360000</v>
+        <v>260000</v>
       </c>
       <c r="B41">
         <v>4</v>
       </c>
       <c r="C41">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D41">
-        <v>1865</v>
-      </c>
-      <c r="E41" t="s">
-        <v>85</v>
+        <v>2015</v>
+      </c>
+      <c r="E41" s="2">
+        <v>129.03225806451599</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="I41" t="s">
-        <v>86</v>
+        <v>31</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>210000</v>
+        <v>250000</v>
       </c>
       <c r="B42">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D42">
-        <v>768</v>
-      </c>
-      <c r="E42" t="s">
-        <v>87</v>
+        <v>1676</v>
+      </c>
+      <c r="E42" s="2">
+        <v>149.164677804295</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>81</v>
       </c>
       <c r="I42" t="s">
-        <v>88</v>
+        <v>40</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>219000</v>
+        <v>374900</v>
       </c>
       <c r="B43">
         <v>4</v>
       </c>
       <c r="C43">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D43">
-        <v>1974</v>
-      </c>
-      <c r="E43" t="s">
-        <v>89</v>
+        <v>2908</v>
+      </c>
+      <c r="E43" s="2">
+        <v>128.92022008252999</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="I43" t="s">
-        <v>90</v>
+        <v>28</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>350000</v>
+        <v>360000</v>
       </c>
       <c r="B44">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C44">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D44">
-        <v>1476</v>
-      </c>
-      <c r="E44" t="s">
-        <v>91</v>
+        <v>2306</v>
+      </c>
+      <c r="E44" s="2">
+        <v>156.11448395490001</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>94</v>
       </c>
       <c r="I44" t="s">
-        <v>92</v>
+        <v>36</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>1100000</v>
+        <v>650000</v>
       </c>
       <c r="B45">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C45">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D45">
-        <v>1738</v>
-      </c>
-      <c r="E45" t="s">
-        <v>93</v>
+        <v>3529</v>
+      </c>
+      <c r="E45" s="2">
+        <v>184.18815528478299</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>114</v>
       </c>
       <c r="I45" t="s">
-        <v>94</v>
+        <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>380000</v>
+        <v>360000</v>
       </c>
       <c r="B46">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C46">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D46">
-        <v>3231</v>
-      </c>
-      <c r="E46" t="s">
-        <v>95</v>
+        <v>1865</v>
+      </c>
+      <c r="E46" s="2">
+        <v>193.02949061662099</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>157</v>
       </c>
       <c r="I46" t="s">
-        <v>96</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>209900</v>
+        <v>739999</v>
       </c>
       <c r="B47">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C47">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D47">
-        <v>1243</v>
-      </c>
-      <c r="E47" t="s">
+        <v>2734</v>
+      </c>
+      <c r="E47" s="2">
+        <v>270.66532553035802</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G47" s="3" t="s">
         <v>97</v>
       </c>
+      <c r="H47" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="I47" t="s">
-        <v>98</v>
+        <v>37</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>169900</v>
+        <v>16800000</v>
       </c>
       <c r="B48">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C48">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D48">
-        <v>1700</v>
-      </c>
-      <c r="E48" t="s">
-        <v>99</v>
+        <v>33000</v>
+      </c>
+      <c r="E48" s="2">
+        <v>509.09090909090901</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>144</v>
       </c>
       <c r="I48" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>379900</v>
-      </c>
-      <c r="B49">
-        <v>3</v>
-      </c>
-      <c r="C49">
-        <v>3</v>
-      </c>
-      <c r="D49">
-        <v>1632</v>
-      </c>
-      <c r="E49" t="s">
-        <v>101</v>
-      </c>
-      <c r="I49" t="s">
-        <v>102</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I48">
+    <sortCondition ref="B1"/>
+    <sortCondition ref="C1"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/PropertyListing.xlsx
+++ b/PropertyListing.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e124fde062bc96d5/Desktop/Robots/rpa-robot-four-real-estate-web-scraping/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="718" documentId="6_{5AB3457C-B67F-4ADB-842A-2935B4644CA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CAA433ED-B8E7-4A37-8EB8-F0B2EE94DB6B}"/>
+  <xr:revisionPtr revIDLastSave="1422" documentId="6_{5AB3457C-B67F-4ADB-842A-2935B4644CA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7FAEB669-5BD6-48A1-BF94-F28F2D318A73}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{2C299A8A-78EA-4017-A8AC-ACEBE2DFB9F5}"/>
   </bookViews>
   <sheets>
-    <sheet name="NEW YORK" sheetId="11" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="AUSTIN" sheetId="16" r:id="rId1"/>
+    <sheet name="NEW YORK" sheetId="14" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="238">
   <si>
     <t>Price</t>
   </si>
@@ -75,509 +76,689 @@
     <t>ZIP</t>
   </si>
   <si>
+    <t>Rochester</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/30-Quintuck-Ln-East-Islip-NY-11730/59358666_zpid/</t>
+  </si>
+  <si>
+    <t>Price per Sqft</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/62-Pollet-Pl-Rochester-NY-14626/103757187_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/508-Roosevelt-Rd-East-Rochester-NY-14445/31050701_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/196-Longridge-Ave-Rochester-NY-14616/30944062_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/144-Jackie-Dr-Rochester-NY-14612/30932187_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/26-Da-Vinci-Dr-Rochester-NY-14624/30908871_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/14-Sunset-Trl-Monroe-NY-10950/31801880_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/40-Josephine-Dr-Rochester-NY-14606/30917176_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/39-Washington-Ave-Ossining-NY-10562/33078179_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/2-Grand-View-Ter-Chester-NY-10918/70912540_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/417-Main-St-Cold-Brook-NY-13324/98739547_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/838-Trolley-Blvd-Rochester-NY-14606/30920094_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/166-Wood-Dale-Dr-Ballston-Lake-NY-12019/32414652_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/42-Winterset-Dr-Rochester-NY-14625/31006253_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/1072-Conklin-Rd-Conklin-NY-13748/29739261_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/597-County-Line-Rd-Ontario-NY-14519/31044961_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/106-Onondaga-Ave-Syracuse-NY-13204/31682583_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/68-Creek-House-Dr-Rochester-NY-14626/30945177_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/121-Brendan-Ave-Buffalo-NY-14217/30395021_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/1997-Titus-Ave-Rochester-NY-14622/30978979_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/60-Chateau-Ct-Depew-NY-14043/30279852_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/61-Sunup-Trl-Riverhead-NY-11901/32675259_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/125-Brentwood-Dr-North-Tonawanda-NY-14120/31463172_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/6391-Michelle-Dr-Lockport-NY-14094/31474152_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/1115-20th-St-Niagara-Falls-NY-14301/31442527_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/33-Lynaugh-Rd-Victor-NY-14564/31900246_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/75-First-Neck-Ln-Southampton-NY-11968/32717232_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/265-Brayton-Rd-Rochester-NY-14616/30942879_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/3663-Orangeport-Rd-Gasport-NY-14067/145670976_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/431-E-32nd-St-Brooklyn-NY-11226/30662254_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/5370-Shimerville-Rd-Clarence-NY-14031/30310133_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/746-Upper-East-Brook-Rd-Walton-NY-13856/30077437_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/1322-County-Highway-107-Fort-Johnson-NY-12070/30471605_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/183-Royal-Ave-Buffalo-NY-14207/30151357_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/85-Haights-Cross-Rd-Chappaqua-NY-10514/299052567_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/781-Chestnut-Ridge-Rd-Kirkville-NY-13082/30843220_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/110-Colonial-Dr-North-Syracuse-NY-13212/31695886_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/60-Palm-Ln-Westbury-NY-11590/2053396106_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/284-Foggintown-Rd-Brewster-NY-10509/31929879_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/2090-Dutch-Hollow-Rd-Avon-NY-14414/30807347_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/73-Fenway-Dr-Lake-Luzerne-NY-12846/59940154_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/1063-Pinebrook-Blvd-New-Rochelle-NY-10804/32965155_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/18-Laurie-Rd-Cortlandt-Manor-NY-10567/58413031_zpid/</t>
+  </si>
+  <si>
+    <t>62 Pollet Pl</t>
+  </si>
+  <si>
+    <t>508 Roosevelt Rd</t>
+  </si>
+  <si>
+    <t>East Rochester</t>
+  </si>
+  <si>
+    <t>196 Longridge Ave</t>
+  </si>
+  <si>
+    <t>144 Jackie Dr</t>
+  </si>
+  <si>
+    <t>26 Da Vinci Dr</t>
+  </si>
+  <si>
+    <t>14 Sunset Trail</t>
+  </si>
+  <si>
+    <t>Monroe</t>
+  </si>
+  <si>
+    <t>339 Greeley St</t>
+  </si>
+  <si>
+    <t>40 Josephine Dr</t>
+  </si>
+  <si>
+    <t>39 Washington Avenue</t>
+  </si>
+  <si>
+    <t>Ossining</t>
+  </si>
+  <si>
+    <t>30 Quintuck Lane</t>
+  </si>
+  <si>
+    <t>East Islip</t>
+  </si>
+  <si>
+    <t>2 Grand View Terrace</t>
+  </si>
+  <si>
+    <t>Chester</t>
+  </si>
+  <si>
+    <t>417 Main St</t>
+  </si>
+  <si>
+    <t>Cold Brook</t>
+  </si>
+  <si>
+    <t>838 Trolley Blvd</t>
+  </si>
+  <si>
+    <t>166 Wood Dale Drive</t>
+  </si>
+  <si>
+    <t>Clifton Park</t>
+  </si>
+  <si>
+    <t>42 Winterset Dr</t>
+  </si>
+  <si>
+    <t>1072 Conklin Rd</t>
+  </si>
+  <si>
+    <t>Conklin</t>
+  </si>
+  <si>
+    <t>597 County Line Rd</t>
+  </si>
+  <si>
+    <t>Ontario</t>
+  </si>
+  <si>
+    <t>106 Onondaga Ave</t>
+  </si>
+  <si>
+    <t>Syracuse</t>
+  </si>
+  <si>
     <t>200 Homecroft Rd</t>
   </si>
   <si>
-    <t>339 Greeley St</t>
+    <t>68 Creek House Dr</t>
+  </si>
+  <si>
+    <t>121 Brendan Ave</t>
+  </si>
+  <si>
+    <t>Buffalo</t>
+  </si>
+  <si>
+    <t>1997 Titus Ave</t>
+  </si>
+  <si>
+    <t>60 Chateau Ct</t>
+  </si>
+  <si>
+    <t>Depew</t>
+  </si>
+  <si>
+    <t>61 Sunup Trl</t>
+  </si>
+  <si>
+    <t>Riverhead</t>
+  </si>
+  <si>
+    <t>125 Brentwood Dr</t>
+  </si>
+  <si>
+    <t>North Tonawanda</t>
+  </si>
+  <si>
+    <t>6391 Michelle Dr</t>
+  </si>
+  <si>
+    <t>Lockport</t>
+  </si>
+  <si>
+    <t>1115 20th St</t>
+  </si>
+  <si>
+    <t>Niagara Falls</t>
+  </si>
+  <si>
+    <t>33 Lynaugh Rd</t>
+  </si>
+  <si>
+    <t>Victor</t>
+  </si>
+  <si>
+    <t>75 First Neck Ln</t>
+  </si>
+  <si>
+    <t>Southampton</t>
+  </si>
+  <si>
+    <t>265 Brayton Rd</t>
+  </si>
+  <si>
+    <t>3663 Orangeport Rd</t>
+  </si>
+  <si>
+    <t>Gasport</t>
+  </si>
+  <si>
+    <t>431 E 32nd St</t>
+  </si>
+  <si>
+    <t>Brooklyn</t>
   </si>
   <si>
     <t>142 Topland Road</t>
   </si>
   <si>
+    <t>Mahopac</t>
+  </si>
+  <si>
+    <t>5370 Shimerville Rd</t>
+  </si>
+  <si>
+    <t>Clarence</t>
+  </si>
+  <si>
+    <t>746 Upper East Brook Rd</t>
+  </si>
+  <si>
+    <t>Walton</t>
+  </si>
+  <si>
+    <t>1322 County Highway 107</t>
+  </si>
+  <si>
+    <t>Fort Johnson</t>
+  </si>
+  <si>
+    <t>183 Royal Ave</t>
+  </si>
+  <si>
     <t>192 Colfax Ave</t>
   </si>
   <si>
-    <t>Rochester</t>
-  </si>
-  <si>
-    <t>Buffalo</t>
-  </si>
-  <si>
-    <t>Syracuse</t>
-  </si>
-  <si>
     <t>Staten Island</t>
   </si>
   <si>
-    <t>Mahopac</t>
-  </si>
-  <si>
-    <t>Clifton Park</t>
-  </si>
-  <si>
-    <t>Niagara Falls</t>
-  </si>
-  <si>
-    <t>Ossining</t>
-  </si>
-  <si>
-    <t>Brooklyn</t>
-  </si>
-  <si>
-    <t>Lockport</t>
-  </si>
-  <si>
-    <t>Lancaster</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/332-Harwick-Rd-Rochester-NY-14609/30984731_zpid/</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/166-Sherbrooke-Ave-Buffalo-NY-14221/30260536_zpid/</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/119-Village-Hill-Dr-Spencerport-NY-14559/30989540_zpid/</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/24005-147th-Ave-Jamaica-NY-11422/32209658_zpid/</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/620-Sinclair-Ave-Staten-Island-NY-10312/32366110_zpid/</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/430-Hill-Rd-Middletown-NY-10940/31855420_zpid/</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/1170-Britton-Rd-Rochester-NY-14616/30942098_zpid/</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/487-Crossfield-Rd-Rochester-NY-14609/30982645_zpid/</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/6029-Morris-Rd-Geneseo-NY-14454/2053347377_zpid/</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/200-Brush-Creek-Dr-Rochester-NY-14612/30929094_zpid/</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/646-Bellevue-Ave-N-Yonkers-NY-10703/32992840_zpid/</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/77-Highland-Lake-Rd-Middletown-NY-10940/31836701_zpid/</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/51-Pine-Tree-Pl-Clifton-Park-NY-12065/32420946_zpid/</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/241-6-137th-Ave-Rosedale-NY-11422/2056637647_zpid/</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/168-Willowcrest-Dr-Buffalo-NY-14224/30417925_zpid/</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/21-Clinton-St-E-Valhalla-NY-10595/33061559_zpid/</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/762-Close-Cir-Webster-NY-14580/54360883_zpid/</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/7-Loch-Loyal-Ct-Penfield-NY-14526/54359855_zpid/</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/30-Quintuck-Ln-East-Islip-NY-11730/59358666_zpid/</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/28-Valleyview-Dr-Keeseville-NY-12944/215764548_zpid/</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/920-Cadillac-St-Syracuse-NY-13208/31775902_zpid/</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/168-Euclid-Ave-Hamburg-NY-14075/133720507_zpid/</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/45-Larch-Rd-Briarcliff-Manor-NY-10510/33054907_zpid/</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/245-Mountain-View-Ave-Wallkill-NY-12589/31837731_zpid/</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/1310-Henry-Ave-Mamaroneck-NY-10543/33089173_zpid/</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/9053-McDonald-Rd-Holland-Patent-NY-13354/31606317_zpid/</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/2753-Woodlawn-Ave-Niagara-Falls-NY-14301/31442900_zpid/</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/28-Park-Ave-Ossining-NY-10562/33075992_zpid/</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/177-Benedict-Rd-Staten-Island-NY-10304/32294383_zpid/</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/276-Walzford-Rd-Rochester-NY-14622/30979279_zpid/</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/35-Atwood-Dr-Rochester-NY-14606/30918541_zpid/</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/177-Rockhill-Rd-Voorheesville-NY-12186/29714951_zpid/</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/135-S-Quaker-Hill-Rd-Pawling-NY-12564/98674556_zpid/</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/2-Shadyside-Ave-Nyack-NY-10960/32386673_zpid/</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/151-Lake-Ln-Millerton-NY-12546/2101732771_zpid/</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/26076-Bonney-Rd-Watertown-NY-13601/30545051_zpid/</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/228-Edward-Pl-Yonkers-NY-10703/2053491555_zpid/</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/92-Hopeland-Ln-Staatsburg-NY-12580/30110663_zpid/</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/5423-Avenue-M-Brooklyn-NY-11234/30763303_zpid/</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/159-Chamberlin-Dr-Buffalo-NY-14210/30406903_zpid/</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/128-Howell-St-Buffalo-NY-14207/30164474_zpid/</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/4A-Saint-Anthony-St-Lancaster-NY-14086/306300793_zpid/</t>
-  </si>
-  <si>
-    <t>https://www.zillow.com/homedetails/7062-Akron-Rd-Lockport-NY-14094/31469404_zpid/</t>
-  </si>
-  <si>
-    <t>Price per Sqft</t>
-  </si>
-  <si>
-    <t>332 Harwick Rd</t>
-  </si>
-  <si>
-    <t>14609</t>
-  </si>
-  <si>
-    <t>166 Sherbrooke Ave</t>
-  </si>
-  <si>
-    <t>14221</t>
-  </si>
-  <si>
-    <t>13206</t>
-  </si>
-  <si>
-    <t>119 Village Hill Dr</t>
-  </si>
-  <si>
-    <t>Spencerport</t>
-  </si>
-  <si>
-    <t>14559</t>
-  </si>
-  <si>
-    <t>24005 147th Ave</t>
-  </si>
-  <si>
-    <t>Jamaica</t>
-  </si>
-  <si>
-    <t>11422</t>
-  </si>
-  <si>
-    <t>620 Sinclair Ave</t>
-  </si>
-  <si>
-    <t>10312</t>
-  </si>
-  <si>
-    <t>430 Hill Road</t>
-  </si>
-  <si>
-    <t>Middletown</t>
-  </si>
-  <si>
-    <t>10940</t>
-  </si>
-  <si>
-    <t>1170 Britton Rd</t>
-  </si>
-  <si>
-    <t>14616</t>
-  </si>
-  <si>
-    <t>487 Crossfield Rd</t>
-  </si>
-  <si>
-    <t>6029 Morris Rd</t>
-  </si>
-  <si>
-    <t>Geneseo</t>
-  </si>
-  <si>
-    <t>14454</t>
-  </si>
-  <si>
-    <t>200 Brush Creek Dr</t>
-  </si>
-  <si>
-    <t>14612</t>
-  </si>
-  <si>
-    <t>10541</t>
-  </si>
-  <si>
-    <t>646 Bellevue Avenue N</t>
-  </si>
-  <si>
-    <t>Yonkers</t>
-  </si>
-  <si>
-    <t>10703</t>
-  </si>
-  <si>
-    <t>77 Highland Lake Road</t>
-  </si>
-  <si>
-    <t>51 Pine Tree Pl</t>
-  </si>
-  <si>
-    <t>12065</t>
-  </si>
-  <si>
-    <t>241-6 137th Ave</t>
-  </si>
-  <si>
-    <t>Rosedale</t>
-  </si>
-  <si>
-    <t>168 Willowcrest Dr</t>
-  </si>
-  <si>
-    <t>14224</t>
-  </si>
-  <si>
-    <t>21 Clinton Street E</t>
-  </si>
-  <si>
-    <t>Valhalla</t>
-  </si>
-  <si>
-    <t>10595</t>
-  </si>
-  <si>
-    <t>762 Close Cir</t>
-  </si>
-  <si>
-    <t>Webster</t>
-  </si>
-  <si>
-    <t>14580</t>
-  </si>
-  <si>
-    <t>7 Loch Loyal Ct</t>
-  </si>
-  <si>
-    <t>Penfield</t>
-  </si>
-  <si>
-    <t>14526</t>
-  </si>
-  <si>
-    <t>30 Quintuck Lane</t>
-  </si>
-  <si>
-    <t>East Islip</t>
-  </si>
-  <si>
-    <t>11730</t>
-  </si>
-  <si>
-    <t>28 Valleyview Dr</t>
-  </si>
-  <si>
-    <t>Keeseville</t>
-  </si>
-  <si>
-    <t>12944</t>
-  </si>
-  <si>
-    <t>920 Cadillac St</t>
-  </si>
-  <si>
-    <t>13208</t>
-  </si>
-  <si>
-    <t>10306</t>
-  </si>
-  <si>
-    <t>168 Euclid Ave</t>
-  </si>
-  <si>
-    <t>Hamburg</t>
-  </si>
-  <si>
-    <t>14075</t>
-  </si>
-  <si>
-    <t>45 Larch Road</t>
-  </si>
-  <si>
-    <t>Briarcliff Manor</t>
-  </si>
-  <si>
-    <t>10510</t>
-  </si>
-  <si>
-    <t>245 Mountain View Avenue</t>
-  </si>
-  <si>
-    <t>Wallkill</t>
-  </si>
-  <si>
-    <t>12589</t>
-  </si>
-  <si>
-    <t>1310 Henry Avenue</t>
-  </si>
-  <si>
-    <t>Mamaroneck</t>
-  </si>
-  <si>
-    <t>10543</t>
-  </si>
-  <si>
-    <t>9053 McDonald Rd</t>
-  </si>
-  <si>
-    <t>Holland Patent</t>
-  </si>
-  <si>
-    <t>13354</t>
-  </si>
-  <si>
-    <t>2753 Woodlawn Ave</t>
-  </si>
-  <si>
-    <t>14301</t>
-  </si>
-  <si>
-    <t>28 Park Avenue</t>
-  </si>
-  <si>
-    <t>10562</t>
-  </si>
-  <si>
-    <t>177 Benedict Rd</t>
-  </si>
-  <si>
-    <t>10304</t>
-  </si>
-  <si>
-    <t>276 Walzford Rd</t>
-  </si>
-  <si>
-    <t>14622</t>
-  </si>
-  <si>
-    <t>35 Atwood Dr</t>
-  </si>
-  <si>
-    <t>14606</t>
-  </si>
-  <si>
-    <t>177 Rockhill Road</t>
-  </si>
-  <si>
-    <t>Voorheesville</t>
-  </si>
-  <si>
-    <t>12186</t>
-  </si>
-  <si>
-    <t>135 S Quaker Hill Road</t>
-  </si>
-  <si>
-    <t>Pawling</t>
-  </si>
-  <si>
-    <t>12564</t>
-  </si>
-  <si>
-    <t>2 Shadyside Avenue</t>
-  </si>
-  <si>
-    <t>Nyack</t>
-  </si>
-  <si>
-    <t>10960</t>
-  </si>
-  <si>
-    <t>151 Lake Ln</t>
-  </si>
-  <si>
-    <t>Millerton</t>
-  </si>
-  <si>
-    <t>12546</t>
-  </si>
-  <si>
-    <t>26076 Bonney Rd</t>
-  </si>
-  <si>
-    <t>Watertown</t>
-  </si>
-  <si>
-    <t>13601</t>
-  </si>
-  <si>
-    <t>228 Edward Pl</t>
-  </si>
-  <si>
-    <t>92 Hopeland Ln</t>
-  </si>
-  <si>
-    <t>Staatsburg</t>
-  </si>
-  <si>
-    <t>12580</t>
-  </si>
-  <si>
-    <t>5423 Avenue M</t>
-  </si>
-  <si>
-    <t>11234</t>
-  </si>
-  <si>
-    <t>159 Chamberlin Dr</t>
-  </si>
-  <si>
-    <t>14210</t>
-  </si>
-  <si>
-    <t>128 Howell St</t>
-  </si>
-  <si>
-    <t>14207</t>
-  </si>
-  <si>
-    <t>4A Saint Anthony St</t>
-  </si>
-  <si>
-    <t>14086</t>
-  </si>
-  <si>
-    <t>7062 Akron Rd</t>
-  </si>
-  <si>
-    <t>14094</t>
+    <t>85 Haights Cross Road</t>
+  </si>
+  <si>
+    <t>Chappaqua</t>
+  </si>
+  <si>
+    <t>781 Chestnut Ridge Rd</t>
+  </si>
+  <si>
+    <t>Kirkville</t>
+  </si>
+  <si>
+    <t>110 Colonial Dr</t>
+  </si>
+  <si>
+    <t>North Syracuse</t>
+  </si>
+  <si>
+    <t>60 Palm Lane</t>
+  </si>
+  <si>
+    <t>Westbury</t>
+  </si>
+  <si>
+    <t>284 Foggintown Road</t>
+  </si>
+  <si>
+    <t>Brewster</t>
+  </si>
+  <si>
+    <t>2090 Dutch Hollow Rd</t>
+  </si>
+  <si>
+    <t>Avon</t>
+  </si>
+  <si>
+    <t>73 Fenway Drive</t>
+  </si>
+  <si>
+    <t>Lake Luzerne</t>
+  </si>
+  <si>
+    <t>1063 Pinebrook Boulevard</t>
+  </si>
+  <si>
+    <t>New Rochelle</t>
+  </si>
+  <si>
+    <t>18 Laurie Road</t>
+  </si>
+  <si>
+    <t>Cortlandt Manor</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/84-East-Ave-1406-Austin-TX-78701/2053392006_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/5613-Kleberg-Trl-Austin-TX-78747/80100217_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/84-East-Ave-1307-Austin-TX-78701/2053391978_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/1618-Lawnside-Rd-San-Antonio-TX-78245/2055797300_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/4509-Kind-Way-Austin-TX-78725/2090097416_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/250-Bright-Sky-Dr-Austin-TX-78737/336747754_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/12400-Cedar-St-Austin-TX-78732/125904370_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/12601-Tierra-Grande-Trl-Austin-TX-78732/80102780_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/2512-Sunny-Hills-Dr-27-Austin-TX-78744/58316929_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/9610-Newberry-Dr-Austin-TX-78729/29567630_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/13504-Campesina-Dr-Austin-TX-78727/58307373_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/427-Drury-Ln-Austin-TX-78737/114157308_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/10005-Shinnecock-Hills-Dr-Austin-TX-78747/29515032_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/2408-Braxton-Cv-Austin-TX-78741/29462916_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/2413-N-Cuernavaca-Dr-Austin-TX-78733/29346645_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/1004-Cassat-Cv-Austin-TX-78753/29438959_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/11708-Palisades-Pkwy-Austin-TX-78732/83830023_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/11904-Brookwood-Cv-Austin-TX-78750/29375728_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/6900-Langston-Dr-Austin-TX-78723/29408693_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/3300-Barksdale-Dr-Austin-TX-78725/70345641_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/5904-Westslope-Dr-Austin-TX-78731/29348309_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/5205-Calais-Ct-Austin-TX-78745/29482924_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/709-Santaluz-Path-Austin-TX-78732/80089385_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/8407-Maine-Dr-Austin-TX-78758/29422633_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/4009-Rivercrest-Dr-Austin-TX-78746/29346545_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/3700-Harpers-Ferry-Ln-Austin-TX-78749/29486296_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/10502-Foundation-Rd-Austin-TX-78726/29376668_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/7308-Rimcrest-Cv-A-8-Austin-TX-78735/110539782_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/4613-Graceful-Ln-500-Austin-TX-78725/241689924_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/7028-Hillcroft-Dr-Austin-TX-78724/29404872_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/3711-Westlake-Dr-Austin-TX-78746/29342054_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/4320-House-Of-York-APT-3-Austin-TX-78730/83824684_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/1304-Bouldin-Ave-Austin-TX-78704/29322005_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/6708-Modesto-St-Austin-TX-78757/29416914_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/2316-Rio-Mesa-Dr-Austin-TX-78732/83818791_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/16611-Denise-Dr-Austin-TX-78717/29577951_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/2817-Prado-St-Austin-TX-78702/29384592_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/11000-Scotland-Well-Dr-Austin-TX-78750/29372338_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/7725-Woodrow-Ave-Austin-TX-78757/29420756_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/6717-Oasis-Pass-Austin-TX-78732/29365433_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/11316-River-Plantation-Dr-Austin-TX-78747/241939124_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/2209-Deleon-Ct-Austin-TX-78733/83825569_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/4423-Jester-Dr-Austin-TX-78745/29479902_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/3111-Fort-Worth-Trl-Austin-TX-78748/144405505_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/1626-Palma-Plz-APT-1-Austin-TX-78703/29329860_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/7805-Varcella-Trl-Austin-TX-78729/29595506_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/1606-W-14th-St-Austin-TX-78703/29329882_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/9504-Oriole-Dr-Austin-TX-78753/29423981_zpid/</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/homedetails/11403-Boothill-Dr-Austin-TX-78748/29513516_zpid/</t>
+  </si>
+  <si>
+    <t>84 East Ave #1406</t>
+  </si>
+  <si>
+    <t>Austin</t>
+  </si>
+  <si>
+    <t>5613 Kleberg Trl</t>
+  </si>
+  <si>
+    <t>84 East Ave #1307</t>
+  </si>
+  <si>
+    <t>1618 Lawnside Rd</t>
+  </si>
+  <si>
+    <t>San Antonio</t>
+  </si>
+  <si>
+    <t>4509 Kind Way</t>
+  </si>
+  <si>
+    <t>250 Bright Sky Dr</t>
+  </si>
+  <si>
+    <t>12400 Cedar St</t>
+  </si>
+  <si>
+    <t>12601 Tierra Grande Trl</t>
+  </si>
+  <si>
+    <t>2512 Sunny Hills Dr #27</t>
+  </si>
+  <si>
+    <t>9610 Newberry Dr</t>
+  </si>
+  <si>
+    <t>13504 Campesina Dr</t>
+  </si>
+  <si>
+    <t>427 Drury Ln</t>
+  </si>
+  <si>
+    <t>10005 Shinnecock Hills Dr</t>
+  </si>
+  <si>
+    <t>2408 Braxton Cv</t>
+  </si>
+  <si>
+    <t>2413 N Cuernavaca Dr</t>
+  </si>
+  <si>
+    <t>1004 Cassat Cv</t>
+  </si>
+  <si>
+    <t>11708 Palisades Pkwy</t>
+  </si>
+  <si>
+    <t>11904 Brookwood Cv</t>
+  </si>
+  <si>
+    <t>6900 Langston Dr</t>
+  </si>
+  <si>
+    <t>3300 Barksdale Dr</t>
+  </si>
+  <si>
+    <t>5904 Westslope Dr</t>
+  </si>
+  <si>
+    <t>5205 Calais Ct</t>
+  </si>
+  <si>
+    <t>709 Santaluz Path</t>
+  </si>
+  <si>
+    <t>8407 Maine Dr</t>
+  </si>
+  <si>
+    <t>4009 Rivercrest Dr</t>
+  </si>
+  <si>
+    <t>3700 Harpers Ferry Ln</t>
+  </si>
+  <si>
+    <t>10502 Foundation Rd</t>
+  </si>
+  <si>
+    <t>7308 Rimcrest Cv #A-8</t>
+  </si>
+  <si>
+    <t>4613 Graceful Ln #500</t>
+  </si>
+  <si>
+    <t>7028 Hillcroft Dr</t>
+  </si>
+  <si>
+    <t>3711 Westlake Dr</t>
+  </si>
+  <si>
+    <t>4320 House Of York APT 3</t>
+  </si>
+  <si>
+    <t>1304 Bouldin Ave</t>
+  </si>
+  <si>
+    <t>6708 Modesto Street</t>
+  </si>
+  <si>
+    <t>2316 Rio Mesa Dr</t>
+  </si>
+  <si>
+    <t>16611 Denise Dr</t>
+  </si>
+  <si>
+    <t>2817 Prado St</t>
+  </si>
+  <si>
+    <t>11000 Scotland Well Dr</t>
+  </si>
+  <si>
+    <t>7725 Woodrow Ave</t>
+  </si>
+  <si>
+    <t>6717 Oasis Pass</t>
+  </si>
+  <si>
+    <t>11316 River Plantation Dr</t>
+  </si>
+  <si>
+    <t>2209 Deleon Ct</t>
+  </si>
+  <si>
+    <t>4423 Jester Dr</t>
+  </si>
+  <si>
+    <t>3111 Fort Worth Trl</t>
+  </si>
+  <si>
+    <t>1626 Palma Plz APT 1</t>
+  </si>
+  <si>
+    <t>7805 Varcella Trl</t>
+  </si>
+  <si>
+    <t>1606 W 14th St</t>
+  </si>
+  <si>
+    <t>9504 Oriole Dr</t>
+  </si>
+  <si>
+    <t>11403 Boothill Dr</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -588,6 +769,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -610,16 +799,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -935,17 +1127,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FD33014-DAD2-4ABA-B1CA-FADA69558601}">
-  <dimension ref="A1:I48"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5825D610-17AA-4D97-910C-ACECD5B3B71A}">
+  <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I51" sqref="I51"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="9.140625" style="2"/>
-    <col min="6" max="6" width="9.140625" style="1"/>
-    <col min="7" max="7" width="9.140625" style="3"/>
-    <col min="8" max="8" width="9.140625" style="1"/>
+    <col min="6" max="7" width="9.140625" style="1"/>
+    <col min="8" max="8" width="9.140625" style="3"/>
+    <col min="9" max="9" width="91.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -962,15 +1156,15 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>70</v>
+        <v>14</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>11</v>
       </c>
       <c r="I1" t="s">
@@ -979,7 +1173,1510 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>169900</v>
+        <v>124900</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>1568</v>
+      </c>
+      <c r="E2" s="2">
+        <v>79.655612244897895</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H2" s="3">
+        <v>78744</v>
+      </c>
+      <c r="I2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>499900</v>
+      </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>3666</v>
+      </c>
+      <c r="E3" s="2">
+        <v>136.36115657392199</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H3" s="3">
+        <v>78753</v>
+      </c>
+      <c r="I3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>374998</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>2451</v>
+      </c>
+      <c r="E4" s="2">
+        <v>152.99796001631901</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="H4" s="3">
+        <v>78245</v>
+      </c>
+      <c r="I4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>374998</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>2451</v>
+      </c>
+      <c r="E5" s="2">
+        <v>152.99796001631901</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="H5" s="3">
+        <v>78245</v>
+      </c>
+      <c r="I5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>379999</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>2345</v>
+      </c>
+      <c r="E6" s="2">
+        <v>162.046481876332</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H6" s="3">
+        <v>78725</v>
+      </c>
+      <c r="I6" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>202291</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>1224</v>
+      </c>
+      <c r="E7" s="2">
+        <v>165.27042483660099</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H7" s="3">
+        <v>78701</v>
+      </c>
+      <c r="I7" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>275000</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>1643</v>
+      </c>
+      <c r="E8" s="2">
+        <v>167.37674984783899</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H8" s="3">
+        <v>78747</v>
+      </c>
+      <c r="I8" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>649000</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>3426</v>
+      </c>
+      <c r="E9" s="2">
+        <v>189.433741973146</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H9" s="3">
+        <v>78747</v>
+      </c>
+      <c r="I9" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>365000</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>1899</v>
+      </c>
+      <c r="E10" s="2">
+        <v>192.20642443391199</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H10" s="3">
+        <v>78747</v>
+      </c>
+      <c r="I10" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>549000</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11">
+        <v>2574</v>
+      </c>
+      <c r="E11" s="2">
+        <v>213.286713286713</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H11" s="3">
+        <v>78735</v>
+      </c>
+      <c r="I11" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>279000</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <v>1302</v>
+      </c>
+      <c r="E12" s="2">
+        <v>214.28571428571399</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H12" s="3">
+        <v>78725</v>
+      </c>
+      <c r="I12" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>629000</v>
+      </c>
+      <c r="B13">
+        <v>5</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13">
+        <v>2844</v>
+      </c>
+      <c r="E13" s="2">
+        <v>221.167369901547</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H13" s="3">
+        <v>78717</v>
+      </c>
+      <c r="I13" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>499950</v>
+      </c>
+      <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="D14">
+        <v>2182</v>
+      </c>
+      <c r="E14" s="2">
+        <v>229.12465627864299</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H14" s="3">
+        <v>78729</v>
+      </c>
+      <c r="I14" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>269000</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>1162</v>
+      </c>
+      <c r="E15" s="2">
+        <v>231.49741824440599</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H15" s="3">
+        <v>78724</v>
+      </c>
+      <c r="I15" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>875000</v>
+      </c>
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>5</v>
+      </c>
+      <c r="D16">
+        <v>3755</v>
+      </c>
+      <c r="E16" s="2">
+        <v>233.02263648468701</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H16" s="3">
+        <v>78737</v>
+      </c>
+      <c r="I16" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>749900</v>
+      </c>
+      <c r="B17">
+        <v>5</v>
+      </c>
+      <c r="C17">
+        <v>4</v>
+      </c>
+      <c r="D17">
+        <v>3194</v>
+      </c>
+      <c r="E17" s="2">
+        <v>234.783969943644</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H17" s="3">
+        <v>78726</v>
+      </c>
+      <c r="I17" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>176155</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>727</v>
+      </c>
+      <c r="E18" s="2">
+        <v>242.303988995873</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H18" s="3">
+        <v>78701</v>
+      </c>
+      <c r="I18" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>275000</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <v>1100</v>
+      </c>
+      <c r="E19" s="2">
+        <v>250</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H19" s="3">
+        <v>78725</v>
+      </c>
+      <c r="I19" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>675000</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20">
+        <v>3</v>
+      </c>
+      <c r="D20">
+        <v>2673</v>
+      </c>
+      <c r="E20" s="2">
+        <v>252.525252525252</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H20" s="3">
+        <v>78732</v>
+      </c>
+      <c r="I20" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>519900</v>
+      </c>
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21">
+        <v>3</v>
+      </c>
+      <c r="D21">
+        <v>2015</v>
+      </c>
+      <c r="E21" s="2">
+        <v>258.01488833746799</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H21" s="3">
+        <v>78727</v>
+      </c>
+      <c r="I21" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>599000</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22">
+        <v>2201</v>
+      </c>
+      <c r="E22" s="2">
+        <v>272.14902317128502</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H22" s="3">
+        <v>78748</v>
+      </c>
+      <c r="I22" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>699000</v>
+      </c>
+      <c r="B23">
+        <v>4</v>
+      </c>
+      <c r="C23">
+        <v>3</v>
+      </c>
+      <c r="D23">
+        <v>2557</v>
+      </c>
+      <c r="E23" s="2">
+        <v>273.36722721939702</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H23" s="3">
+        <v>78737</v>
+      </c>
+      <c r="I23" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>834900</v>
+      </c>
+      <c r="B24">
+        <v>4</v>
+      </c>
+      <c r="C24">
+        <v>3</v>
+      </c>
+      <c r="D24">
+        <v>2782</v>
+      </c>
+      <c r="E24" s="2">
+        <v>300.10783608914397</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H24" s="3">
+        <v>78750</v>
+      </c>
+      <c r="I24" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>485000</v>
+      </c>
+      <c r="B25">
+        <v>4</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="D25">
+        <v>1615</v>
+      </c>
+      <c r="E25" s="2">
+        <v>300.309597523219</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H25" s="3">
+        <v>78729</v>
+      </c>
+      <c r="I25" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>505000</v>
+      </c>
+      <c r="B26">
+        <v>4</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="D26">
+        <v>1656</v>
+      </c>
+      <c r="E26" s="2">
+        <v>304.95169082125602</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H26" s="3">
+        <v>78745</v>
+      </c>
+      <c r="I26" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>535000</v>
+      </c>
+      <c r="B27">
+        <v>3</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27">
+        <v>1600</v>
+      </c>
+      <c r="E27" s="2">
+        <v>334.375</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H27" s="3">
+        <v>78723</v>
+      </c>
+      <c r="I27" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>525000</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="D28">
+        <v>1555</v>
+      </c>
+      <c r="E28" s="2">
+        <v>337.62057877813498</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H28" s="3">
+        <v>78749</v>
+      </c>
+      <c r="I28" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>721000</v>
+      </c>
+      <c r="B29">
+        <v>3</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+      <c r="D29">
+        <v>2103</v>
+      </c>
+      <c r="E29" s="2">
+        <v>342.843556823585</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H29" s="3">
+        <v>78732</v>
+      </c>
+      <c r="I29" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>700000</v>
+      </c>
+      <c r="B30">
+        <v>3</v>
+      </c>
+      <c r="C30">
+        <v>2</v>
+      </c>
+      <c r="D30">
+        <v>2025</v>
+      </c>
+      <c r="E30" s="2">
+        <v>345.67901234567898</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H30" s="3">
+        <v>78748</v>
+      </c>
+      <c r="I30" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>349900</v>
+      </c>
+      <c r="B31">
+        <v>3</v>
+      </c>
+      <c r="C31">
+        <v>2</v>
+      </c>
+      <c r="D31">
+        <v>969</v>
+      </c>
+      <c r="E31" s="2">
+        <v>361.09391124871001</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H31" s="3">
+        <v>78753</v>
+      </c>
+      <c r="I31" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>595000</v>
+      </c>
+      <c r="B32">
+        <v>3</v>
+      </c>
+      <c r="C32">
+        <v>2</v>
+      </c>
+      <c r="D32">
+        <v>1631</v>
+      </c>
+      <c r="E32" s="2">
+        <v>364.80686695278899</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H32" s="3">
+        <v>78757</v>
+      </c>
+      <c r="I32" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>475000</v>
+      </c>
+      <c r="B33">
+        <v>3</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+      <c r="D33">
+        <v>1300</v>
+      </c>
+      <c r="E33" s="2">
+        <v>365.38461538461502</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H33" s="3">
+        <v>78757</v>
+      </c>
+      <c r="I33" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>1595000</v>
+      </c>
+      <c r="B34">
+        <v>5</v>
+      </c>
+      <c r="C34">
+        <v>4</v>
+      </c>
+      <c r="D34">
+        <v>4198</v>
+      </c>
+      <c r="E34" s="2">
+        <v>379.942829919009</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H34" s="3">
+        <v>78732</v>
+      </c>
+      <c r="I34" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>400000</v>
+      </c>
+      <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>990</v>
+      </c>
+      <c r="E35" s="2">
+        <v>404.04040404040398</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H35" s="3">
+        <v>78741</v>
+      </c>
+      <c r="I35" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>845000</v>
+      </c>
+      <c r="B36">
+        <v>3</v>
+      </c>
+      <c r="C36">
+        <v>2</v>
+      </c>
+      <c r="D36">
+        <v>2054</v>
+      </c>
+      <c r="E36" s="2">
+        <v>411.39240506329099</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H36" s="3">
+        <v>78733</v>
+      </c>
+      <c r="I36" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>1559000</v>
+      </c>
+      <c r="B37">
+        <v>4</v>
+      </c>
+      <c r="C37">
+        <v>4</v>
+      </c>
+      <c r="D37">
+        <v>3765</v>
+      </c>
+      <c r="E37" s="2">
+        <v>414.077025232403</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H37" s="3">
+        <v>78732</v>
+      </c>
+      <c r="I37" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>565000</v>
+      </c>
+      <c r="B38">
+        <v>3</v>
+      </c>
+      <c r="C38">
+        <v>2</v>
+      </c>
+      <c r="D38">
+        <v>1332</v>
+      </c>
+      <c r="E38" s="2">
+        <v>424.17417417417403</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H38" s="3">
+        <v>78702</v>
+      </c>
+      <c r="I38" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>625000</v>
+      </c>
+      <c r="B39">
+        <v>4</v>
+      </c>
+      <c r="C39">
+        <v>2</v>
+      </c>
+      <c r="D39">
+        <v>1374</v>
+      </c>
+      <c r="E39" s="2">
+        <v>454.87627365356599</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H39" s="3">
+        <v>78758</v>
+      </c>
+      <c r="I39" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>950000</v>
+      </c>
+      <c r="B40">
+        <v>4</v>
+      </c>
+      <c r="C40">
+        <v>3</v>
+      </c>
+      <c r="D40">
+        <v>2075</v>
+      </c>
+      <c r="E40" s="2">
+        <v>457.831325301204</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H40" s="3">
+        <v>78750</v>
+      </c>
+      <c r="I40" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>799000</v>
+      </c>
+      <c r="B41">
+        <v>3</v>
+      </c>
+      <c r="C41">
+        <v>4</v>
+      </c>
+      <c r="D41">
+        <v>1655</v>
+      </c>
+      <c r="E41" s="2">
+        <v>482.77945619335298</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H41" s="3">
+        <v>78703</v>
+      </c>
+      <c r="I41" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>2995000</v>
+      </c>
+      <c r="B42">
+        <v>5</v>
+      </c>
+      <c r="C42">
+        <v>5</v>
+      </c>
+      <c r="D42">
+        <v>5490</v>
+      </c>
+      <c r="E42" s="2">
+        <v>545.53734061930697</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H42" s="3">
+        <v>78730</v>
+      </c>
+      <c r="I42" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>1649000</v>
+      </c>
+      <c r="B43">
+        <v>3</v>
+      </c>
+      <c r="C43">
+        <v>4</v>
+      </c>
+      <c r="D43">
+        <v>2895</v>
+      </c>
+      <c r="E43" s="2">
+        <v>569.60276338514598</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H43" s="3">
+        <v>78731</v>
+      </c>
+      <c r="I43" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>2059000</v>
+      </c>
+      <c r="B44">
+        <v>5</v>
+      </c>
+      <c r="C44">
+        <v>5</v>
+      </c>
+      <c r="D44">
+        <v>3543</v>
+      </c>
+      <c r="E44" s="2">
+        <v>581.14592153542196</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H44" s="3">
+        <v>78745</v>
+      </c>
+      <c r="I44" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>1295000</v>
+      </c>
+      <c r="B45">
+        <v>3</v>
+      </c>
+      <c r="C45">
+        <v>2</v>
+      </c>
+      <c r="D45">
+        <v>2138</v>
+      </c>
+      <c r="E45" s="2">
+        <v>605.70626753975603</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H45" s="3">
+        <v>78703</v>
+      </c>
+      <c r="I45" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>3850000</v>
+      </c>
+      <c r="B46">
+        <v>6</v>
+      </c>
+      <c r="C46">
+        <v>5</v>
+      </c>
+      <c r="D46">
+        <v>5850</v>
+      </c>
+      <c r="E46" s="2">
+        <v>658.11965811965797</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H46" s="3">
+        <v>78733</v>
+      </c>
+      <c r="I46" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>6000000</v>
+      </c>
+      <c r="B47">
+        <v>16</v>
+      </c>
+      <c r="C47">
+        <v>13</v>
+      </c>
+      <c r="D47">
+        <v>6436</v>
+      </c>
+      <c r="E47" s="2">
+        <v>932.25605966438695</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H47" s="3">
+        <v>78704</v>
+      </c>
+      <c r="I47" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>6500000</v>
+      </c>
+      <c r="B48">
+        <v>4</v>
+      </c>
+      <c r="C48">
+        <v>7</v>
+      </c>
+      <c r="D48">
+        <v>6843</v>
+      </c>
+      <c r="E48" s="2">
+        <v>949.87578547420696</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H48" s="3">
+        <v>78732</v>
+      </c>
+      <c r="I48" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>19500000</v>
+      </c>
+      <c r="B49">
+        <v>6</v>
+      </c>
+      <c r="C49">
+        <v>13</v>
+      </c>
+      <c r="D49">
+        <v>15394</v>
+      </c>
+      <c r="E49" s="2">
+        <v>1266.7272963492201</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H49" s="3">
+        <v>78732</v>
+      </c>
+      <c r="I49" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>10800000</v>
+      </c>
+      <c r="B50">
+        <v>3</v>
+      </c>
+      <c r="C50">
+        <v>3</v>
+      </c>
+      <c r="D50">
+        <v>3955</v>
+      </c>
+      <c r="E50" s="2">
+        <v>2730.7206068268001</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H50" s="3">
+        <v>78746</v>
+      </c>
+      <c r="I50" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>18885000</v>
+      </c>
+      <c r="B51">
+        <v>4</v>
+      </c>
+      <c r="C51">
+        <v>5</v>
+      </c>
+      <c r="D51">
+        <v>4602</v>
+      </c>
+      <c r="E51" s="2">
+        <v>4103.6505867014303</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H51" s="3">
+        <v>78746</v>
+      </c>
+      <c r="I51" s="4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I51">
+    <sortCondition ref="E1"/>
+  </sortState>
+  <hyperlinks>
+    <hyperlink ref="I51" r:id="rId1" xr:uid="{E40C9839-A457-4A80-B3B8-1A3C22364CCD}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{789F3BD5-8541-4607-8281-9B40391A6E76}">
+  <dimension ref="A1:I48"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="9.140625" style="2"/>
+    <col min="6" max="7" width="9.140625" style="1"/>
+    <col min="8" max="8" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>159900</v>
       </c>
       <c r="B2">
         <v>2</v>
@@ -988,56 +2685,56 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>1700</v>
+        <v>880</v>
       </c>
       <c r="E2" s="2">
-        <v>99.941176470588204</v>
+        <v>181.70454545454501</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>173</v>
+        <v>87</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H2" s="3">
+        <v>14217</v>
       </c>
       <c r="I2" t="s">
-        <v>67</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>210000</v>
+        <v>220000</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>768</v>
+        <v>1328</v>
       </c>
       <c r="E3" s="2">
-        <v>273.4375</v>
+        <v>165.662650602409</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>160</v>
+        <v>122</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H3" s="3">
+        <v>13082</v>
       </c>
       <c r="I3" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>375000</v>
+        <v>320000</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -1046,85 +2743,85 @@
         <v>2</v>
       </c>
       <c r="D4">
-        <v>1652</v>
+        <v>1353</v>
       </c>
       <c r="E4" s="2">
-        <v>226.99757869249299</v>
+        <v>236.51145602365099</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>86</v>
+        <v>128</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H4" s="3">
+        <v>10509</v>
       </c>
       <c r="I4" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>625000</v>
+        <v>199000</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>1160</v>
+        <v>1143</v>
       </c>
       <c r="E5" s="2">
-        <v>538.79310344827502</v>
+        <v>174.103237095363</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>135</v>
+        <v>63</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H5" s="3">
+        <v>10950</v>
       </c>
       <c r="I5" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>599000</v>
+        <v>179888</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>2836</v>
+        <v>1068</v>
       </c>
       <c r="E6" s="2">
-        <v>211.21297602256701</v>
+        <v>168.43445692883799</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>154</v>
+        <v>94</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H6" s="3">
+        <v>14120</v>
       </c>
       <c r="I6" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>139900</v>
+        <v>99900</v>
       </c>
       <c r="B7">
         <v>3</v>
@@ -1133,27 +2830,27 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>1231</v>
+        <v>980</v>
       </c>
       <c r="E7" s="2">
-        <v>113.64744110479199</v>
+        <v>101.938775510204</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>88</v>
+        <v>104</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="3">
+        <v>14616</v>
       </c>
       <c r="I7" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>119900</v>
+        <v>279900</v>
       </c>
       <c r="B8">
         <v>3</v>
@@ -1162,27 +2859,27 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>864</v>
+        <v>1288</v>
       </c>
       <c r="E8" s="2">
-        <v>138.77314814814801</v>
+        <v>217.31366459627299</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>72</v>
+        <v>105</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="H8" s="3">
+        <v>14067</v>
       </c>
       <c r="I8" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>249900</v>
+        <v>129000</v>
       </c>
       <c r="B9">
         <v>3</v>
@@ -1191,80 +2888,80 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>1240</v>
+        <v>1330</v>
       </c>
       <c r="E9" s="2">
-        <v>201.53225806451599</v>
+        <v>96.9924812030075</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>126</v>
+        <v>117</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H9" s="3">
+        <v>14207</v>
       </c>
       <c r="I9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>339000</v>
+        <v>239900</v>
       </c>
       <c r="B10">
         <v>3</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10">
-        <v>1248</v>
+        <v>1276</v>
       </c>
       <c r="E10" s="2">
-        <v>271.63461538461502</v>
+        <v>188.00940438871399</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>142</v>
+        <v>57</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="3">
+        <v>14626</v>
       </c>
       <c r="I10" t="s">
-        <v>54</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>300000</v>
+        <v>189999</v>
       </c>
       <c r="B11">
         <v>3</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11">
-        <v>952</v>
+        <v>1272</v>
       </c>
       <c r="E11" s="2">
-        <v>315.12605042016799</v>
+        <v>149.37028301886701</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>169</v>
+        <v>60</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="3">
+        <v>14616</v>
       </c>
       <c r="I11" t="s">
-        <v>65</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -1284,13 +2981,13 @@
         <v>79.255643685173794</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>72</v>
+        <v>65</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="3">
+        <v>14609</v>
       </c>
       <c r="I12" t="s">
         <v>5</v>
@@ -1298,7 +2995,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>189900</v>
+        <v>154900</v>
       </c>
       <c r="B13">
         <v>3</v>
@@ -1307,27 +3004,27 @@
         <v>2</v>
       </c>
       <c r="D13">
-        <v>1860</v>
+        <v>1348</v>
       </c>
       <c r="E13" s="2">
-        <v>102.096774193548</v>
+        <v>114.910979228486</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>151</v>
+        <v>66</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="3">
+        <v>14606</v>
       </c>
       <c r="I13" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>174900</v>
+        <v>585000</v>
       </c>
       <c r="B14">
         <v>3</v>
@@ -1336,27 +3033,27 @@
         <v>2</v>
       </c>
       <c r="D14">
-        <v>1470</v>
+        <v>1199</v>
       </c>
       <c r="E14" s="2">
-        <v>118.979591836734</v>
+        <v>487.90658882401999</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>146</v>
+        <v>69</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H14" s="3">
+        <v>11730</v>
       </c>
       <c r="I14" t="s">
-        <v>56</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>194000</v>
+        <v>189900</v>
       </c>
       <c r="B15">
         <v>3</v>
@@ -1365,27 +3062,27 @@
         <v>2</v>
       </c>
       <c r="D15">
-        <v>1528</v>
+        <v>1664</v>
       </c>
       <c r="E15" s="2">
-        <v>126.96335078534</v>
+        <v>114.122596153846</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="G15" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" s="3">
+        <v>14606</v>
+      </c>
+      <c r="I15" t="s">
         <v>25</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="I15" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>259900</v>
+        <v>169900</v>
       </c>
       <c r="B16">
         <v>3</v>
@@ -1394,27 +3091,27 @@
         <v>2</v>
       </c>
       <c r="D16">
-        <v>1922</v>
+        <v>1840</v>
       </c>
       <c r="E16" s="2">
-        <v>135.22372528616</v>
+        <v>92.336956521739097</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>138</v>
+        <v>79</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H16" s="3">
+        <v>13748</v>
       </c>
       <c r="I16" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>199900</v>
+        <v>329900</v>
       </c>
       <c r="B17">
         <v>3</v>
@@ -1423,19 +3120,19 @@
         <v>2</v>
       </c>
       <c r="D17">
-        <v>1420</v>
+        <v>2128</v>
       </c>
       <c r="E17" s="2">
-        <v>140.774647887323</v>
+        <v>155.028195488721</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H17" s="3">
+        <v>14519</v>
       </c>
       <c r="I17" t="s">
         <v>29</v>
@@ -1443,7 +3140,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>189900</v>
+        <v>169900</v>
       </c>
       <c r="B18">
         <v>3</v>
@@ -1452,27 +3149,27 @@
         <v>2</v>
       </c>
       <c r="D18">
-        <v>1328</v>
+        <v>1482</v>
       </c>
       <c r="E18" s="2">
-        <v>142.996987951807</v>
+        <v>114.64237516868999</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>72</v>
+        <v>89</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" s="3">
+        <v>14622</v>
       </c>
       <c r="I18" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>209900</v>
+        <v>200000</v>
       </c>
       <c r="B19">
         <v>3</v>
@@ -1481,27 +3178,27 @@
         <v>2</v>
       </c>
       <c r="D19">
-        <v>1457</v>
+        <v>1614</v>
       </c>
       <c r="E19" s="2">
-        <v>144.063143445435</v>
+        <v>123.915737298636</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>148</v>
+        <v>90</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H19" s="3">
+        <v>14043</v>
       </c>
       <c r="I19" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>299000</v>
+        <v>620000</v>
       </c>
       <c r="B20">
         <v>3</v>
@@ -1510,27 +3207,27 @@
         <v>2</v>
       </c>
       <c r="D20">
-        <v>1778</v>
+        <v>1797</v>
       </c>
       <c r="E20" s="2">
-        <v>168.166479190101</v>
+        <v>345.01947690595398</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>101</v>
+        <v>92</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H20" s="3">
+        <v>11901</v>
       </c>
       <c r="I20" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>209900</v>
+        <v>239900</v>
       </c>
       <c r="B21">
         <v>3</v>
@@ -1539,27 +3236,27 @@
         <v>2</v>
       </c>
       <c r="D21">
-        <v>1243</v>
+        <v>1358</v>
       </c>
       <c r="E21" s="2">
-        <v>168.86564762670901</v>
+        <v>176.65684830633199</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>171</v>
+        <v>96</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H21" s="3">
+        <v>14094</v>
       </c>
       <c r="I21" t="s">
-        <v>66</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>198000</v>
+        <v>119900</v>
       </c>
       <c r="B22">
         <v>3</v>
@@ -1568,27 +3265,27 @@
         <v>2</v>
       </c>
       <c r="D22">
-        <v>999</v>
+        <v>1436</v>
       </c>
       <c r="E22" s="2">
-        <v>198.19819819819801</v>
+        <v>83.495821727019504</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>105</v>
+        <v>98</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H22" s="3">
+        <v>14301</v>
       </c>
       <c r="I22" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>350000</v>
+        <v>190</v>
       </c>
       <c r="B23">
         <v>3</v>
@@ -1597,27 +3294,27 @@
         <v>2</v>
       </c>
       <c r="D23">
-        <v>1500</v>
+        <v>1274</v>
       </c>
       <c r="E23" s="2">
-        <v>233.333333333333</v>
+        <v>0.14913657770800601</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>86</v>
+        <v>100</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H23" s="3">
+        <v>14564</v>
       </c>
       <c r="I23" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>350000</v>
+        <v>425000</v>
       </c>
       <c r="B24">
         <v>3</v>
@@ -1626,27 +3323,27 @@
         <v>2</v>
       </c>
       <c r="D24">
-        <v>1476</v>
+        <v>1224</v>
       </c>
       <c r="E24" s="2">
-        <v>237.12737127371199</v>
+        <v>347.222222222222</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>98</v>
+        <v>109</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="H24" s="3">
+        <v>10541</v>
       </c>
       <c r="I24" t="s">
-        <v>63</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>364999</v>
+        <v>199999</v>
       </c>
       <c r="B25">
         <v>3</v>
@@ -1655,27 +3352,27 @@
         <v>2</v>
       </c>
       <c r="D25">
-        <v>1186</v>
+        <v>2129</v>
       </c>
       <c r="E25" s="2">
-        <v>307.756323777403</v>
+        <v>93.9403475810239</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>132</v>
+        <v>113</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H25" s="3">
+        <v>13856</v>
       </c>
       <c r="I25" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>425000</v>
+        <v>88900</v>
       </c>
       <c r="B26">
         <v>3</v>
@@ -1684,27 +3381,27 @@
         <v>2</v>
       </c>
       <c r="D26">
-        <v>1224</v>
+        <v>1966</v>
       </c>
       <c r="E26" s="2">
-        <v>347.222222222222</v>
+        <v>45.218718209562503</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>95</v>
+        <v>115</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="H26" s="3">
+        <v>12070</v>
       </c>
       <c r="I26" t="s">
-        <v>7</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>599000</v>
+        <v>585000</v>
       </c>
       <c r="B27">
         <v>3</v>
@@ -1713,27 +3410,27 @@
         <v>2</v>
       </c>
       <c r="D27">
-        <v>1401</v>
+        <v>1100</v>
       </c>
       <c r="E27" s="2">
-        <v>427.55174875089199</v>
+        <v>531.81818181818096</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>108</v>
+        <v>118</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="H27" s="3">
+        <v>10306</v>
       </c>
       <c r="I27" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>585000</v>
+        <v>249900</v>
       </c>
       <c r="B28">
         <v>3</v>
@@ -1742,27 +3439,27 @@
         <v>2</v>
       </c>
       <c r="D28">
-        <v>1199</v>
+        <v>1592</v>
       </c>
       <c r="E28" s="2">
-        <v>487.90658882401999</v>
+        <v>156.972361809045</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>117</v>
+        <v>124</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H28" s="3">
+        <v>13212</v>
       </c>
       <c r="I28" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>585000</v>
+        <v>239900</v>
       </c>
       <c r="B29">
         <v>3</v>
@@ -1771,56 +3468,56 @@
         <v>2</v>
       </c>
       <c r="D29">
-        <v>1100</v>
+        <v>2104</v>
       </c>
       <c r="E29" s="2">
-        <v>531.81818181818096</v>
+        <v>114.020912547528</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>123</v>
+        <v>132</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="H29" s="3">
+        <v>12846</v>
       </c>
       <c r="I29" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>200000</v>
+        <v>789000</v>
       </c>
       <c r="B30">
         <v>3</v>
       </c>
       <c r="C30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D30">
-        <v>2400</v>
+        <v>1923</v>
       </c>
       <c r="E30" s="2">
-        <v>83.3333333333333</v>
+        <v>410.29641185647398</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>120</v>
+        <v>134</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H30" s="3">
+        <v>10804</v>
       </c>
       <c r="I30" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>199900</v>
+        <v>249900</v>
       </c>
       <c r="B31">
         <v>3</v>
@@ -1829,27 +3526,27 @@
         <v>3</v>
       </c>
       <c r="D31">
-        <v>1556</v>
+        <v>1560</v>
       </c>
       <c r="E31" s="2">
-        <v>128.47043701799399</v>
+        <v>160.192307692307</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>92</v>
+        <v>86</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H31" s="3">
+        <v>14626</v>
       </c>
       <c r="I31" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>324900</v>
+        <v>778000</v>
       </c>
       <c r="B32">
         <v>3</v>
@@ -1858,19 +3555,19 @@
         <v>3</v>
       </c>
       <c r="D32">
-        <v>1894</v>
+        <v>1881</v>
       </c>
       <c r="E32" s="2">
-        <v>171.54171066525799</v>
+        <v>413.60978203083403</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H32" s="3">
+        <v>11226</v>
       </c>
       <c r="I32" t="s">
         <v>43</v>
@@ -1878,7 +3575,7 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>379900</v>
+        <v>324900</v>
       </c>
       <c r="B33">
         <v>3</v>
@@ -1887,85 +3584,85 @@
         <v>3</v>
       </c>
       <c r="D33">
-        <v>1632</v>
+        <v>1881</v>
       </c>
       <c r="E33" s="2">
-        <v>232.78186274509801</v>
+        <v>172.72727272727201</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>175</v>
+        <v>111</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H33" s="3">
+        <v>14031</v>
       </c>
       <c r="I33" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>799000</v>
+        <v>289900</v>
       </c>
       <c r="B34">
         <v>3</v>
       </c>
       <c r="C34">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D34">
-        <v>2068</v>
+        <v>2440</v>
       </c>
       <c r="E34" s="2">
-        <v>386.36363636363598</v>
+        <v>118.81147540983601</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="H34" s="3">
+        <v>14414</v>
       </c>
       <c r="I34" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>1100000</v>
+        <v>159900</v>
       </c>
       <c r="B35">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C35">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D35">
-        <v>1738</v>
+        <v>1827</v>
       </c>
       <c r="E35" s="2">
-        <v>632.911392405063</v>
+        <v>87.520525451559905</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>167</v>
+        <v>61</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H35" s="3">
+        <v>14612</v>
       </c>
       <c r="I35" t="s">
-        <v>64</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>195000</v>
+        <v>650000</v>
       </c>
       <c r="B36">
         <v>4</v>
@@ -1974,27 +3671,27 @@
         <v>2</v>
       </c>
       <c r="D36">
-        <v>2264</v>
+        <v>2200</v>
       </c>
       <c r="E36" s="2">
-        <v>86.130742049469902</v>
+        <v>295.45454545454498</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>75</v>
+        <v>67</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H36" s="3">
+        <v>10562</v>
       </c>
       <c r="I36" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>179900</v>
+        <v>379900</v>
       </c>
       <c r="B37">
         <v>4</v>
@@ -2003,27 +3700,27 @@
         <v>2</v>
       </c>
       <c r="D37">
-        <v>2045</v>
+        <v>1939</v>
       </c>
       <c r="E37" s="2">
-        <v>87.970660146699203</v>
+        <v>195.92573491490401</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>140</v>
+        <v>78</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H37" s="3">
+        <v>14625</v>
       </c>
       <c r="I37" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>125000</v>
+        <v>1000</v>
       </c>
       <c r="B38">
         <v>4</v>
@@ -2032,27 +3729,27 @@
         <v>2</v>
       </c>
       <c r="D38">
-        <v>1294</v>
+        <v>2722</v>
       </c>
       <c r="E38" s="2">
-        <v>96.599690880989101</v>
+        <v>0.36737692872887501</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>122</v>
+        <v>83</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H38" s="3">
+        <v>13204</v>
       </c>
       <c r="I38" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>250000</v>
+        <v>195000</v>
       </c>
       <c r="B39">
         <v>4</v>
@@ -2061,27 +3758,27 @@
         <v>2</v>
       </c>
       <c r="D39">
-        <v>2304</v>
+        <v>2264</v>
       </c>
       <c r="E39" s="2">
-        <v>108.506944444444</v>
+        <v>86.130742049469902</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G39" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H39" s="3">
+        <v>13206</v>
       </c>
       <c r="I39" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>219000</v>
+        <v>515000</v>
       </c>
       <c r="B40">
         <v>4</v>
@@ -2090,254 +3787,254 @@
         <v>2</v>
       </c>
       <c r="D40">
-        <v>1974</v>
+        <v>1700</v>
       </c>
       <c r="E40" s="2">
-        <v>110.942249240121</v>
+        <v>302.941176470588</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>163</v>
+        <v>136</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="H40" s="3">
+        <v>10567</v>
       </c>
       <c r="I40" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>260000</v>
+        <v>259900</v>
       </c>
       <c r="B41">
         <v>4</v>
       </c>
       <c r="C41">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D41">
-        <v>2015</v>
+        <v>1889</v>
       </c>
       <c r="E41" s="2">
-        <v>129.03225806451599</v>
+        <v>137.586024351508</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="G41" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H41" s="3">
+        <v>14624</v>
+      </c>
+      <c r="I41" t="s">
         <v>19</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="I41" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>250000</v>
+        <v>699900</v>
       </c>
       <c r="B42">
         <v>4</v>
       </c>
       <c r="C42">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D42">
-        <v>1676</v>
+        <v>3480</v>
       </c>
       <c r="E42" s="2">
-        <v>149.164677804295</v>
+        <v>201.12068965517199</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>81</v>
+        <v>71</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H42" s="3">
+        <v>10918</v>
       </c>
       <c r="I42" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>374900</v>
+        <v>435000</v>
       </c>
       <c r="B43">
         <v>4</v>
       </c>
       <c r="C43">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D43">
-        <v>2908</v>
+        <v>2796</v>
       </c>
       <c r="E43" s="2">
-        <v>128.92022008252999</v>
+        <v>155.57939914163001</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H43" s="3">
+        <v>12019</v>
       </c>
       <c r="I43" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>360000</v>
+        <v>195000</v>
       </c>
       <c r="B44">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C44">
         <v>3</v>
       </c>
       <c r="D44">
-        <v>2306</v>
+        <v>1976</v>
       </c>
       <c r="E44" s="2">
-        <v>156.11448395490001</v>
+        <v>98.684210526315795</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="G44" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H44" s="3">
+        <v>14445</v>
+      </c>
+      <c r="I44" t="s">
         <v>16</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="I44" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>650000</v>
+        <v>2599000</v>
       </c>
       <c r="B45">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C45">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D45">
-        <v>3529</v>
+        <v>4000</v>
       </c>
       <c r="E45" s="2">
-        <v>184.18815528478299</v>
+        <v>649.75</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>114</v>
+        <v>126</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="H45" s="3">
+        <v>11590</v>
       </c>
       <c r="I45" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>360000</v>
+        <v>160000</v>
       </c>
       <c r="B46">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C46">
         <v>3</v>
       </c>
       <c r="D46">
-        <v>1865</v>
+        <v>3275</v>
       </c>
       <c r="E46" s="2">
-        <v>193.02949061662099</v>
+        <v>48.854961832061001</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>157</v>
+        <v>73</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H46" s="3">
+        <v>13324</v>
       </c>
       <c r="I46" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>739999</v>
+        <v>1900000</v>
       </c>
       <c r="B47">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C47">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D47">
-        <v>2734</v>
+        <v>6814</v>
       </c>
       <c r="E47" s="2">
-        <v>270.66532553035802</v>
+        <v>278.83768711476301</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>98</v>
+        <v>120</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H47" s="3">
+        <v>10514</v>
       </c>
       <c r="I47" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>16800000</v>
+        <v>16995000</v>
       </c>
       <c r="B48">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C48">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D48">
-        <v>33000</v>
+        <v>9500</v>
       </c>
       <c r="E48" s="2">
-        <v>509.09090909090901</v>
+        <v>1788.94736842105</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>144</v>
+        <v>102</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H48" s="3">
+        <v>11968</v>
       </c>
       <c r="I48" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -2349,7 +4046,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4663A32F-7369-4A06-94AB-6AD3F4508609}">
   <dimension ref="A1"/>
   <sheetViews>
